--- a/Data/ROY Data/rookies_16_17.xlsx
+++ b/Data/ROY Data/rookies_16_17.xlsx
@@ -1023,76 +1023,76 @@
         <v>23</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>174</v>
+        <v>68</v>
       </c>
       <c r="H2">
-        <v>2777</v>
+        <v>1055</v>
       </c>
       <c r="I2">
-        <v>305</v>
+        <v>134</v>
       </c>
       <c r="J2">
-        <v>789</v>
+        <v>341</v>
       </c>
       <c r="K2">
-        <v>219</v>
+        <v>94</v>
       </c>
       <c r="L2">
-        <v>595</v>
+        <v>247</v>
       </c>
       <c r="M2">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="N2">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="O2">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="P2">
-        <v>248</v>
+        <v>86</v>
       </c>
       <c r="Q2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="R2">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="S2">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="T2">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="U2">
-        <v>291</v>
+        <v>114</v>
       </c>
       <c r="V2">
-        <v>924</v>
+        <v>406</v>
       </c>
       <c r="W2">
-        <v>0.387</v>
+        <v>0.393</v>
       </c>
       <c r="X2">
-        <v>0.368</v>
+        <v>0.381</v>
       </c>
       <c r="Y2">
-        <v>0.88</v>
+        <v>0.898</v>
       </c>
       <c r="Z2">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA2">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="AB2">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AC2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD2" t="s">
         <v>179</v>
@@ -1115,76 +1115,76 @@
         <v>23</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="H3">
-        <v>1394</v>
+        <v>857</v>
       </c>
       <c r="I3">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="J3">
-        <v>296</v>
+        <v>217</v>
       </c>
       <c r="K3">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L3">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="M3">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="N3">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="O3">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P3">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="Q3">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="R3">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="S3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="T3">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="U3">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="V3">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="W3">
-        <v>0.358</v>
+        <v>0.378</v>
       </c>
       <c r="X3">
-        <v>0.265</v>
+        <v>0.267</v>
       </c>
       <c r="Y3">
-        <v>0.707</v>
+        <v>0.651</v>
       </c>
       <c r="Z3">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA3">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="AB3">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="AC3">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AD3" t="s">
         <v>179</v>
@@ -1207,76 +1207,76 @@
         <v>20</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>405</v>
+      </c>
+      <c r="I4">
+        <v>36</v>
+      </c>
+      <c r="J4">
+        <v>115</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="G4">
-        <v>56</v>
-      </c>
-      <c r="H4">
-        <v>579</v>
-      </c>
-      <c r="I4">
-        <v>60</v>
-      </c>
-      <c r="J4">
-        <v>169</v>
-      </c>
-      <c r="K4">
-        <v>9</v>
-      </c>
       <c r="L4">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M4">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="N4">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="O4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P4">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="Q4">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="R4">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T4">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="U4">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="V4">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="W4">
-        <v>0.355</v>
+        <v>0.313</v>
       </c>
       <c r="X4">
-        <v>0.25</v>
+        <v>0.136</v>
       </c>
       <c r="Y4">
-        <v>0.776</v>
+        <v>0.838</v>
       </c>
       <c r="Z4">
-        <v>10.3</v>
+        <v>12.3</v>
       </c>
       <c r="AA4">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AB4">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AC4">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AD4" t="s">
         <v>179</v>
@@ -1299,76 +1299,76 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="H5">
-        <v>3836</v>
+        <v>165</v>
       </c>
       <c r="I5">
-        <v>682</v>
+        <v>33</v>
       </c>
       <c r="J5">
-        <v>1522</v>
+        <v>73</v>
       </c>
       <c r="K5">
-        <v>307</v>
+        <v>9</v>
       </c>
       <c r="L5">
-        <v>791</v>
+        <v>28</v>
       </c>
       <c r="M5">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="N5">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="O5">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="P5">
-        <v>436</v>
+        <v>17</v>
       </c>
       <c r="Q5">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="R5">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="S5">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="U5">
-        <v>239</v>
+        <v>10</v>
       </c>
       <c r="V5">
-        <v>1811</v>
+        <v>83</v>
       </c>
       <c r="W5">
-        <v>0.448</v>
+        <v>0.452</v>
       </c>
       <c r="X5">
-        <v>0.388</v>
+        <v>0.321</v>
       </c>
       <c r="Y5">
         <v>0.8</v>
       </c>
       <c r="Z5">
-        <v>17.4</v>
+        <v>7.5</v>
       </c>
       <c r="AA5">
-        <v>8.199999999999999</v>
+        <v>3.8</v>
       </c>
       <c r="AB5">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AD5" t="s">
         <v>179</v>
@@ -1391,76 +1391,76 @@
         <v>22</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>189</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>3672</v>
+        <v>371</v>
       </c>
       <c r="I6">
-        <v>479</v>
+        <v>47</v>
       </c>
       <c r="J6">
-        <v>1070</v>
+        <v>98</v>
       </c>
       <c r="K6">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>286</v>
+        <v>18</v>
       </c>
       <c r="M6">
-        <v>138</v>
+        <v>6</v>
       </c>
       <c r="N6">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="O6">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="P6">
-        <v>641</v>
+        <v>59</v>
       </c>
       <c r="Q6">
-        <v>360</v>
+        <v>28</v>
       </c>
       <c r="R6">
-        <v>189</v>
+        <v>8</v>
       </c>
       <c r="S6">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="T6">
-        <v>265</v>
+        <v>16</v>
       </c>
       <c r="U6">
-        <v>333</v>
+        <v>21</v>
       </c>
       <c r="V6">
-        <v>1173</v>
+        <v>101</v>
       </c>
       <c r="W6">
-        <v>0.448</v>
+        <v>0.48</v>
       </c>
       <c r="X6">
-        <v>0.269</v>
+        <v>0.056</v>
       </c>
       <c r="Y6">
-        <v>0.592</v>
+        <v>0.375</v>
       </c>
       <c r="Z6">
-        <v>19.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA6">
-        <v>6.2</v>
+        <v>2.7</v>
       </c>
       <c r="AB6">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="AC6">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="AD6" t="s">
         <v>179</v>
@@ -1483,76 +1483,76 @@
         <v>19</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>43</v>
+      </c>
+      <c r="H7">
+        <v>574</v>
+      </c>
+      <c r="I7">
+        <v>57</v>
+      </c>
+      <c r="J7">
+        <v>161</v>
+      </c>
+      <c r="K7">
+        <v>28</v>
+      </c>
+      <c r="L7">
+        <v>101</v>
+      </c>
+      <c r="M7">
         <v>4</v>
       </c>
-      <c r="G7">
-        <v>187</v>
-      </c>
-      <c r="H7">
-        <v>3755</v>
-      </c>
-      <c r="I7">
-        <v>373</v>
-      </c>
-      <c r="J7">
-        <v>934</v>
-      </c>
-      <c r="K7">
-        <v>183</v>
-      </c>
-      <c r="L7">
-        <v>567</v>
-      </c>
-      <c r="M7">
-        <v>85</v>
-      </c>
       <c r="N7">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="O7">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="P7">
-        <v>720</v>
+        <v>103</v>
       </c>
       <c r="Q7">
-        <v>237</v>
+        <v>23</v>
       </c>
       <c r="R7">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="S7">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="T7">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="U7">
-        <v>372</v>
+        <v>74</v>
       </c>
       <c r="V7">
-        <v>1014</v>
+        <v>146</v>
       </c>
       <c r="W7">
-        <v>0.399</v>
+        <v>0.354</v>
       </c>
       <c r="X7">
-        <v>0.323</v>
+        <v>0.277</v>
       </c>
       <c r="Y7">
-        <v>0.654</v>
+        <v>0.364</v>
       </c>
       <c r="Z7">
-        <v>20.1</v>
+        <v>13.3</v>
       </c>
       <c r="AA7">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="AB7">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="AC7">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="AD7" t="s">
         <v>179</v>
@@ -1664,76 +1664,76 @@
         <v>24</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>274</v>
+        <v>67</v>
       </c>
       <c r="H9">
-        <v>5109</v>
+        <v>808</v>
       </c>
       <c r="I9">
-        <v>733</v>
+        <v>103</v>
       </c>
       <c r="J9">
-        <v>1663</v>
+        <v>234</v>
       </c>
       <c r="K9">
-        <v>508</v>
+        <v>69</v>
       </c>
       <c r="L9">
-        <v>1235</v>
+        <v>173</v>
       </c>
       <c r="M9">
-        <v>225</v>
+        <v>28</v>
       </c>
       <c r="N9">
-        <v>265</v>
+        <v>34</v>
       </c>
       <c r="O9">
+        <v>22</v>
+      </c>
+      <c r="P9">
         <v>98</v>
       </c>
-      <c r="P9">
-        <v>760</v>
-      </c>
       <c r="Q9">
-        <v>312</v>
+        <v>46</v>
       </c>
       <c r="R9">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="S9">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="T9">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="U9">
-        <v>440</v>
+        <v>75</v>
       </c>
       <c r="V9">
-        <v>2199</v>
+        <v>303</v>
       </c>
       <c r="W9">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="X9">
-        <v>0.411</v>
+        <v>0.399</v>
       </c>
       <c r="Y9">
-        <v>0.849</v>
+        <v>0.824</v>
       </c>
       <c r="Z9">
-        <v>18.6</v>
+        <v>12.1</v>
       </c>
       <c r="AA9">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="AB9">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="AC9">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="AD9" t="s">
         <v>179</v>
@@ -1756,76 +1756,76 @@
         <v>23</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H10">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="I10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J10">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
         <v>6</v>
       </c>
-      <c r="N10">
-        <v>12</v>
-      </c>
       <c r="O10">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Q10">
         <v>2</v>
       </c>
       <c r="R10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S10">
         <v>2</v>
       </c>
       <c r="T10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="W10">
-        <v>0.545</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="X10">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="Y10">
         <v>0.5</v>
       </c>
       <c r="Z10">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="AA10">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AB10">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AC10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD10" t="s">
         <v>179</v>
@@ -1848,76 +1848,76 @@
         <v>24</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>235</v>
+        <v>75</v>
       </c>
       <c r="H11">
-        <v>6722</v>
+        <v>1982</v>
       </c>
       <c r="I11">
-        <v>1201</v>
+        <v>290</v>
       </c>
       <c r="J11">
-        <v>2545</v>
+        <v>635</v>
       </c>
       <c r="K11">
-        <v>305</v>
+        <v>78</v>
       </c>
       <c r="L11">
-        <v>793</v>
+        <v>193</v>
       </c>
       <c r="M11">
-        <v>470</v>
+        <v>109</v>
       </c>
       <c r="N11">
-        <v>525</v>
+        <v>126</v>
       </c>
       <c r="O11">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="P11">
-        <v>883</v>
+        <v>213</v>
       </c>
       <c r="Q11">
-        <v>1017</v>
+        <v>317</v>
       </c>
       <c r="R11">
-        <v>204</v>
+        <v>84</v>
       </c>
       <c r="S11">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="T11">
-        <v>385</v>
+        <v>113</v>
       </c>
       <c r="U11">
-        <v>458</v>
+        <v>140</v>
       </c>
       <c r="V11">
-        <v>3177</v>
+        <v>767</v>
       </c>
       <c r="W11">
-        <v>0.472</v>
+        <v>0.457</v>
       </c>
       <c r="X11">
-        <v>0.385</v>
+        <v>0.404</v>
       </c>
       <c r="Y11">
-        <v>0.895</v>
+        <v>0.865</v>
       </c>
       <c r="Z11">
-        <v>28.6</v>
+        <v>26.4</v>
       </c>
       <c r="AA11">
-        <v>13.5</v>
+        <v>10.2</v>
       </c>
       <c r="AB11">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="AC11">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AD11" t="s">
         <v>179</v>
@@ -1940,76 +1940,76 @@
         <v>20</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="H12">
-        <v>7142</v>
+        <v>1341</v>
       </c>
       <c r="I12">
-        <v>1317</v>
+        <v>192</v>
       </c>
       <c r="J12">
-        <v>2805</v>
+        <v>423</v>
       </c>
       <c r="K12">
-        <v>372</v>
+        <v>46</v>
       </c>
       <c r="L12">
-        <v>1008</v>
+        <v>135</v>
       </c>
       <c r="M12">
-        <v>534</v>
+        <v>85</v>
       </c>
       <c r="N12">
-        <v>784</v>
+        <v>124</v>
       </c>
       <c r="O12">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="P12">
-        <v>1201</v>
+        <v>220</v>
       </c>
       <c r="Q12">
-        <v>388</v>
+        <v>64</v>
       </c>
       <c r="R12">
-        <v>231</v>
+        <v>35</v>
       </c>
       <c r="S12">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="T12">
-        <v>408</v>
+        <v>68</v>
       </c>
       <c r="U12">
-        <v>665</v>
+        <v>142</v>
       </c>
       <c r="V12">
-        <v>3540</v>
+        <v>515</v>
       </c>
       <c r="W12">
-        <v>0.47</v>
+        <v>0.454</v>
       </c>
       <c r="X12">
-        <v>0.369</v>
+        <v>0.341</v>
       </c>
       <c r="Y12">
-        <v>0.681</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="Z12">
-        <v>26.2</v>
+        <v>17.2</v>
       </c>
       <c r="AA12">
-        <v>13</v>
+        <v>6.6</v>
       </c>
       <c r="AB12">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="AC12">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="AD12" t="s">
         <v>179</v>
@@ -2032,25 +2032,25 @@
         <v>23</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H13">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="I13">
         <v>52</v>
       </c>
       <c r="J13">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K13">
         <v>29</v>
       </c>
       <c r="L13">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M13">
         <v>17</v>
@@ -2062,7 +2062,7 @@
         <v>26</v>
       </c>
       <c r="P13">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q13">
         <v>47</v>
@@ -2083,25 +2083,25 @@
         <v>150</v>
       </c>
       <c r="W13">
-        <v>0.364</v>
+        <v>0.369</v>
       </c>
       <c r="X13">
-        <v>0.299</v>
+        <v>0.305</v>
       </c>
       <c r="Y13">
         <v>0.773</v>
       </c>
       <c r="Z13">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AA13">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AB13">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AC13">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD13" t="s">
         <v>179</v>
@@ -2124,76 +2124,76 @@
         <v>19</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="H14">
-        <v>4965</v>
+        <v>1743</v>
       </c>
       <c r="I14">
-        <v>763</v>
+        <v>284</v>
       </c>
       <c r="J14">
-        <v>1674</v>
+        <v>632</v>
       </c>
       <c r="K14">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="L14">
-        <v>525</v>
+        <v>224</v>
       </c>
       <c r="M14">
-        <v>361</v>
+        <v>113</v>
       </c>
       <c r="N14">
-        <v>540</v>
+        <v>181</v>
       </c>
       <c r="O14">
-        <v>326</v>
+        <v>96</v>
       </c>
       <c r="P14">
-        <v>1250</v>
+        <v>348</v>
       </c>
       <c r="Q14">
-        <v>279</v>
+        <v>60</v>
       </c>
       <c r="R14">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="S14">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="T14">
-        <v>329</v>
+        <v>108</v>
       </c>
       <c r="U14">
-        <v>671</v>
+        <v>263</v>
       </c>
       <c r="V14">
-        <v>2039</v>
+        <v>753</v>
       </c>
       <c r="W14">
-        <v>0.456</v>
+        <v>0.449</v>
       </c>
       <c r="X14">
-        <v>0.29</v>
+        <v>0.321</v>
       </c>
       <c r="Y14">
-        <v>0.669</v>
+        <v>0.624</v>
       </c>
       <c r="Z14">
-        <v>19.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA14">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB14">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="AC14">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="AD14" t="s">
         <v>179</v>
@@ -2308,76 +2308,76 @@
         <v>23</v>
       </c>
       <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>188</v>
+      </c>
+      <c r="I16">
+        <v>33</v>
+      </c>
+      <c r="J16">
+        <v>66</v>
+      </c>
+      <c r="K16">
+        <v>11</v>
+      </c>
+      <c r="L16">
+        <v>26</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>7</v>
+      </c>
+      <c r="Q16">
+        <v>26</v>
+      </c>
+      <c r="R16">
         <v>4</v>
       </c>
-      <c r="G16">
-        <v>159</v>
-      </c>
-      <c r="H16">
-        <v>2396</v>
-      </c>
-      <c r="I16">
-        <v>435</v>
-      </c>
-      <c r="J16">
-        <v>930</v>
-      </c>
-      <c r="K16">
-        <v>163</v>
-      </c>
-      <c r="L16">
-        <v>396</v>
-      </c>
-      <c r="M16">
-        <v>50</v>
-      </c>
-      <c r="N16">
-        <v>65</v>
-      </c>
-      <c r="O16">
-        <v>40</v>
-      </c>
-      <c r="P16">
-        <v>286</v>
-      </c>
-      <c r="Q16">
-        <v>271</v>
-      </c>
-      <c r="R16">
-        <v>47</v>
-      </c>
       <c r="S16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="U16">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="V16">
-        <v>1083</v>
+        <v>79</v>
       </c>
       <c r="W16">
-        <v>0.468</v>
+        <v>0.5</v>
       </c>
       <c r="X16">
-        <v>0.412</v>
+        <v>0.423</v>
       </c>
       <c r="Y16">
-        <v>0.769</v>
+        <v>0.4</v>
       </c>
       <c r="Z16">
-        <v>15.1</v>
+        <v>13.4</v>
       </c>
       <c r="AA16">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="AB16">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="AC16">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AD16" t="s">
         <v>179</v>
@@ -2400,76 +2400,73 @@
         <v>20</v>
       </c>
       <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>36</v>
+      </c>
+      <c r="H17">
+        <v>238</v>
+      </c>
+      <c r="I17">
+        <v>24</v>
+      </c>
+      <c r="J17">
+        <v>47</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17">
+        <v>18</v>
+      </c>
+      <c r="O17">
+        <v>20</v>
+      </c>
+      <c r="P17">
+        <v>60</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
         <v>3</v>
       </c>
-      <c r="G17">
-        <v>107</v>
-      </c>
-      <c r="H17">
-        <v>1299</v>
-      </c>
-      <c r="I17">
-        <v>200</v>
-      </c>
-      <c r="J17">
-        <v>334</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>54</v>
-      </c>
-      <c r="N17">
-        <v>85</v>
-      </c>
-      <c r="O17">
-        <v>105</v>
-      </c>
-      <c r="P17">
-        <v>346</v>
-      </c>
-      <c r="Q17">
-        <v>47</v>
-      </c>
-      <c r="R17">
-        <v>21</v>
-      </c>
       <c r="S17">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="T17">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="U17">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="V17">
-        <v>454</v>
+        <v>58</v>
       </c>
       <c r="W17">
-        <v>0.599</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
+        <v>0.511</v>
       </c>
       <c r="Y17">
-        <v>0.635</v>
+        <v>0.556</v>
       </c>
       <c r="Z17">
-        <v>12.1</v>
+        <v>6.6</v>
       </c>
       <c r="AA17">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="AB17">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="AC17">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AD17" t="s">
         <v>179</v>
@@ -2492,76 +2489,76 @@
         <v>27</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="H18">
-        <v>2262</v>
+        <v>1248</v>
       </c>
       <c r="I18">
-        <v>254</v>
+        <v>145</v>
       </c>
       <c r="J18">
-        <v>673</v>
+        <v>388</v>
       </c>
       <c r="K18">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="L18">
-        <v>234</v>
+        <v>110</v>
       </c>
       <c r="M18">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="N18">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="O18">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="P18">
-        <v>223</v>
+        <v>123</v>
       </c>
       <c r="Q18">
-        <v>356</v>
+        <v>193</v>
       </c>
       <c r="R18">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="S18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T18">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="U18">
-        <v>194</v>
+        <v>112</v>
       </c>
       <c r="V18">
-        <v>729</v>
+        <v>391</v>
       </c>
       <c r="W18">
-        <v>0.377</v>
+        <v>0.374</v>
       </c>
       <c r="X18">
-        <v>0.308</v>
+        <v>0.236</v>
       </c>
       <c r="Y18">
-        <v>0.805</v>
+        <v>0.806</v>
       </c>
       <c r="Z18">
-        <v>17.8</v>
+        <v>17.1</v>
       </c>
       <c r="AA18">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="AB18">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AC18">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AD18" t="s">
         <v>179</v>
@@ -2584,76 +2581,73 @@
         <v>20</v>
       </c>
       <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>199</v>
+      </c>
+      <c r="I19">
+        <v>36</v>
+      </c>
+      <c r="J19">
+        <v>76</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>15</v>
+      </c>
+      <c r="N19">
+        <v>21</v>
+      </c>
+      <c r="O19">
+        <v>23</v>
+      </c>
+      <c r="P19">
+        <v>73</v>
+      </c>
+      <c r="Q19">
         <v>4</v>
       </c>
-      <c r="G19">
-        <v>177</v>
-      </c>
-      <c r="H19">
-        <v>2143</v>
-      </c>
-      <c r="I19">
-        <v>395</v>
-      </c>
-      <c r="J19">
-        <v>660</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>6</v>
-      </c>
-      <c r="M19">
-        <v>147</v>
-      </c>
-      <c r="N19">
-        <v>191</v>
-      </c>
-      <c r="O19">
-        <v>173</v>
-      </c>
-      <c r="P19">
-        <v>743</v>
-      </c>
-      <c r="Q19">
-        <v>78</v>
-      </c>
       <c r="R19">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="S19">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="T19">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="U19">
-        <v>266</v>
+        <v>17</v>
       </c>
       <c r="V19">
-        <v>939</v>
+        <v>87</v>
       </c>
       <c r="W19">
-        <v>0.598</v>
-      </c>
-      <c r="X19">
-        <v>0.333</v>
+        <v>0.474</v>
       </c>
       <c r="Y19">
-        <v>0.77</v>
+        <v>0.714</v>
       </c>
       <c r="Z19">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="AA19">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AB19">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AC19">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AD19" t="s">
         <v>179</v>
@@ -2676,76 +2670,76 @@
         <v>22</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="H20">
-        <v>5516</v>
+        <v>1333</v>
       </c>
       <c r="I20">
-        <v>771</v>
+        <v>118</v>
       </c>
       <c r="J20">
-        <v>1827</v>
+        <v>313</v>
       </c>
       <c r="K20">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="L20">
-        <v>415</v>
+        <v>73</v>
       </c>
       <c r="M20">
-        <v>215</v>
+        <v>36</v>
       </c>
       <c r="N20">
-        <v>296</v>
+        <v>59</v>
       </c>
       <c r="O20">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="P20">
-        <v>760</v>
+        <v>166</v>
       </c>
       <c r="Q20">
-        <v>948</v>
+        <v>188</v>
       </c>
       <c r="R20">
-        <v>351</v>
+        <v>78</v>
       </c>
       <c r="S20">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="T20">
-        <v>411</v>
+        <v>89</v>
       </c>
       <c r="U20">
-        <v>676</v>
+        <v>178</v>
       </c>
       <c r="V20">
-        <v>1884</v>
+        <v>293</v>
       </c>
       <c r="W20">
-        <v>0.422</v>
+        <v>0.377</v>
       </c>
       <c r="X20">
-        <v>0.306</v>
+        <v>0.288</v>
       </c>
       <c r="Y20">
-        <v>0.726</v>
+        <v>0.61</v>
       </c>
       <c r="Z20">
-        <v>24.3</v>
+        <v>17.1</v>
       </c>
       <c r="AA20">
-        <v>8.300000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="AB20">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="AC20">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="AD20" t="s">
         <v>179</v>
@@ -2768,76 +2762,76 @@
         <v>20</v>
       </c>
       <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>19</v>
+      </c>
+      <c r="H21">
+        <v>146</v>
+      </c>
+      <c r="I21">
+        <v>23</v>
+      </c>
+      <c r="J21">
+        <v>64</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <v>35</v>
+      </c>
+      <c r="M21">
         <v>4</v>
       </c>
-      <c r="G21">
-        <v>81</v>
-      </c>
-      <c r="H21">
-        <v>749</v>
-      </c>
-      <c r="I21">
-        <v>116</v>
-      </c>
-      <c r="J21">
-        <v>312</v>
-      </c>
-      <c r="K21">
-        <v>47</v>
-      </c>
-      <c r="L21">
-        <v>137</v>
-      </c>
-      <c r="M21">
-        <v>48</v>
-      </c>
       <c r="N21">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="O21">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="P21">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="Q21">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="R21">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="U21">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="V21">
-        <v>327</v>
+        <v>60</v>
       </c>
       <c r="W21">
-        <v>0.372</v>
+        <v>0.359</v>
       </c>
       <c r="X21">
-        <v>0.343</v>
+        <v>0.286</v>
       </c>
       <c r="Y21">
-        <v>0.774</v>
+        <v>0.5</v>
       </c>
       <c r="Z21">
-        <v>9.199999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="AA21">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="AB21">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AC21">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AD21" t="s">
         <v>179</v>
@@ -2860,76 +2854,76 @@
         <v>22</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>202</v>
+        <v>31</v>
       </c>
       <c r="H22">
-        <v>6181</v>
+        <v>786</v>
       </c>
       <c r="I22">
-        <v>1622</v>
+        <v>200</v>
       </c>
       <c r="J22">
-        <v>3385</v>
+        <v>429</v>
       </c>
       <c r="K22">
-        <v>237</v>
+        <v>36</v>
       </c>
       <c r="L22">
-        <v>736</v>
+        <v>98</v>
       </c>
       <c r="M22">
-        <v>1383</v>
+        <v>191</v>
       </c>
       <c r="N22">
-        <v>1742</v>
+        <v>244</v>
       </c>
       <c r="O22">
-        <v>486</v>
+        <v>61</v>
       </c>
       <c r="P22">
-        <v>2324</v>
+        <v>243</v>
       </c>
       <c r="Q22">
-        <v>636</v>
+        <v>66</v>
       </c>
       <c r="R22">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="S22">
-        <v>367</v>
+        <v>76</v>
       </c>
       <c r="T22">
-        <v>712</v>
+        <v>117</v>
       </c>
       <c r="U22">
-        <v>683</v>
+        <v>112</v>
       </c>
       <c r="V22">
-        <v>4864</v>
+        <v>627</v>
       </c>
       <c r="W22">
-        <v>0.479</v>
+        <v>0.466</v>
       </c>
       <c r="X22">
-        <v>0.322</v>
+        <v>0.367</v>
       </c>
       <c r="Y22">
-        <v>0.794</v>
+        <v>0.783</v>
       </c>
       <c r="Z22">
-        <v>30.6</v>
+        <v>25.4</v>
       </c>
       <c r="AA22">
-        <v>24.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB22">
-        <v>11.5</v>
+        <v>7.8</v>
       </c>
       <c r="AC22">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="AD22" t="s">
         <v>179</v>
@@ -2952,76 +2946,76 @@
         <v>21</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23">
+        <v>42</v>
+      </c>
+      <c r="H23">
+        <v>386</v>
+      </c>
+      <c r="I23">
+        <v>62</v>
+      </c>
+      <c r="J23">
+        <v>158</v>
+      </c>
+      <c r="K23">
+        <v>7</v>
+      </c>
+      <c r="L23">
+        <v>22</v>
+      </c>
+      <c r="M23">
+        <v>35</v>
+      </c>
+      <c r="N23">
+        <v>49</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <v>41</v>
+      </c>
+      <c r="Q23">
         <v>58</v>
       </c>
-      <c r="H23">
-        <v>526</v>
-      </c>
-      <c r="I23">
-        <v>83</v>
-      </c>
-      <c r="J23">
-        <v>228</v>
-      </c>
-      <c r="K23">
-        <v>11</v>
-      </c>
-      <c r="L23">
-        <v>41</v>
-      </c>
-      <c r="M23">
-        <v>46</v>
-      </c>
-      <c r="N23">
-        <v>61</v>
-      </c>
-      <c r="O23">
-        <v>6</v>
-      </c>
-      <c r="P23">
-        <v>59</v>
-      </c>
-      <c r="Q23">
-        <v>78</v>
-      </c>
       <c r="R23">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T23">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="U23">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="V23">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="W23">
-        <v>0.364</v>
+        <v>0.392</v>
       </c>
       <c r="X23">
-        <v>0.268</v>
+        <v>0.318</v>
       </c>
       <c r="Y23">
-        <v>0.754</v>
+        <v>0.714</v>
       </c>
       <c r="Z23">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA23">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AB23">
         <v>1</v>
       </c>
       <c r="AC23">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AD23" t="s">
         <v>179</v>
@@ -3044,76 +3038,76 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>243</v>
+        <v>46</v>
       </c>
       <c r="H24">
-        <v>5030</v>
+        <v>1197</v>
       </c>
       <c r="I24">
-        <v>691</v>
+        <v>160</v>
       </c>
       <c r="J24">
-        <v>1645</v>
+        <v>394</v>
       </c>
       <c r="K24">
-        <v>275</v>
+        <v>68</v>
       </c>
       <c r="L24">
-        <v>753</v>
+        <v>176</v>
       </c>
       <c r="M24">
-        <v>248</v>
+        <v>74</v>
       </c>
       <c r="N24">
-        <v>296</v>
+        <v>89</v>
       </c>
       <c r="O24">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="P24">
-        <v>517</v>
+        <v>111</v>
       </c>
       <c r="Q24">
-        <v>569</v>
+        <v>172</v>
       </c>
       <c r="R24">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="S24">
+        <v>9</v>
+      </c>
+      <c r="T24">
+        <v>70</v>
+      </c>
+      <c r="U24">
+        <v>90</v>
+      </c>
+      <c r="V24">
+        <v>462</v>
+      </c>
+      <c r="W24">
+        <v>0.406</v>
+      </c>
+      <c r="X24">
+        <v>0.386</v>
+      </c>
+      <c r="Y24">
+        <v>0.831</v>
+      </c>
+      <c r="Z24">
         <v>26</v>
       </c>
-      <c r="T24">
-        <v>213</v>
-      </c>
-      <c r="U24">
-        <v>338</v>
-      </c>
-      <c r="V24">
-        <v>1905</v>
-      </c>
-      <c r="W24">
-        <v>0.42</v>
-      </c>
-      <c r="X24">
-        <v>0.365</v>
-      </c>
-      <c r="Y24">
-        <v>0.838</v>
-      </c>
-      <c r="Z24">
-        <v>20.7</v>
-      </c>
       <c r="AA24">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="AB24">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AC24">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="AD24" t="s">
         <v>179</v>
@@ -3136,76 +3130,76 @@
         <v>23</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="H25">
-        <v>6001</v>
+        <v>1642</v>
       </c>
       <c r="I25">
-        <v>614</v>
+        <v>124</v>
       </c>
       <c r="J25">
-        <v>1446</v>
+        <v>333</v>
       </c>
       <c r="K25">
-        <v>256</v>
+        <v>56</v>
       </c>
       <c r="L25">
-        <v>783</v>
+        <v>191</v>
       </c>
       <c r="M25">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="N25">
-        <v>276</v>
+        <v>61</v>
       </c>
       <c r="O25">
-        <v>343</v>
+        <v>55</v>
       </c>
       <c r="P25">
-        <v>1042</v>
+        <v>222</v>
       </c>
       <c r="Q25">
-        <v>290</v>
+        <v>67</v>
       </c>
       <c r="R25">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="S25">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="T25">
-        <v>206</v>
+        <v>45</v>
       </c>
       <c r="U25">
-        <v>514</v>
+        <v>125</v>
       </c>
       <c r="V25">
-        <v>1684</v>
+        <v>350</v>
       </c>
       <c r="W25">
-        <v>0.425</v>
+        <v>0.372</v>
       </c>
       <c r="X25">
-        <v>0.327</v>
+        <v>0.293</v>
       </c>
       <c r="Y25">
-        <v>0.725</v>
+        <v>0.754</v>
       </c>
       <c r="Z25">
-        <v>24.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA25">
-        <v>6.8</v>
+        <v>4.3</v>
       </c>
       <c r="AB25">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="AC25">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AD25" t="s">
         <v>179</v>
@@ -3228,76 +3222,76 @@
         <v>23</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>261</v>
+        <v>36</v>
       </c>
       <c r="H26">
-        <v>5674</v>
+        <v>285</v>
       </c>
       <c r="I26">
-        <v>848</v>
+        <v>36</v>
       </c>
       <c r="J26">
-        <v>1968</v>
+        <v>99</v>
       </c>
       <c r="K26">
-        <v>430</v>
+        <v>17</v>
       </c>
       <c r="L26">
-        <v>1075</v>
+        <v>53</v>
       </c>
       <c r="M26">
-        <v>197</v>
+        <v>5</v>
       </c>
       <c r="N26">
-        <v>246</v>
+        <v>6</v>
       </c>
       <c r="O26">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="P26">
-        <v>498</v>
+        <v>23</v>
       </c>
       <c r="Q26">
-        <v>386</v>
+        <v>23</v>
       </c>
       <c r="R26">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="S26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="U26">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="V26">
-        <v>2323</v>
+        <v>94</v>
       </c>
       <c r="W26">
-        <v>0.431</v>
+        <v>0.364</v>
       </c>
       <c r="X26">
-        <v>0.4</v>
+        <v>0.321</v>
       </c>
       <c r="Y26">
-        <v>0.801</v>
+        <v>0.833</v>
       </c>
       <c r="Z26">
-        <v>21.7</v>
+        <v>7.9</v>
       </c>
       <c r="AA26">
-        <v>8.9</v>
+        <v>2.6</v>
       </c>
       <c r="AB26">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="AC26">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD26" t="s">
         <v>179</v>
@@ -3501,76 +3495,76 @@
         <v>22</v>
       </c>
       <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>48</v>
+      </c>
+      <c r="I29">
         <v>2</v>
       </c>
-      <c r="G29">
-        <v>47</v>
-      </c>
-      <c r="H29">
-        <v>272</v>
-      </c>
-      <c r="I29">
-        <v>23</v>
-      </c>
       <c r="J29">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>9</v>
+      </c>
+      <c r="N29">
+        <v>10</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>9</v>
+      </c>
+      <c r="Q29">
+        <v>3</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>2</v>
+      </c>
+      <c r="U29">
         <v>5</v>
       </c>
-      <c r="L29">
-        <v>17</v>
-      </c>
-      <c r="M29">
-        <v>22</v>
-      </c>
-      <c r="N29">
-        <v>31</v>
-      </c>
-      <c r="O29">
-        <v>8</v>
-      </c>
-      <c r="P29">
-        <v>25</v>
-      </c>
-      <c r="Q29">
-        <v>10</v>
-      </c>
-      <c r="R29">
-        <v>7</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>5</v>
-      </c>
-      <c r="U29">
-        <v>37</v>
-      </c>
       <c r="V29">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="W29">
-        <v>0.418</v>
+        <v>0.286</v>
       </c>
       <c r="X29">
-        <v>0.294</v>
+        <v>0.5</v>
       </c>
       <c r="Y29">
-        <v>0.71</v>
+        <v>0.9</v>
       </c>
       <c r="Z29">
-        <v>5.8</v>
+        <v>9.6</v>
       </c>
       <c r="AA29">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="AB29">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="AC29">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AD29" t="s">
         <v>179</v>
@@ -3593,25 +3587,25 @@
         <v>29</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H30">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="I30">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="J30">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="K30">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L30">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="M30">
         <v>21</v>
@@ -3623,10 +3617,10 @@
         <v>1</v>
       </c>
       <c r="P30">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q30">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="R30">
         <v>8</v>
@@ -3635,34 +3629,34 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="U30">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="V30">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="W30">
-        <v>0.415</v>
+        <v>0.368</v>
       </c>
       <c r="X30">
-        <v>0.368</v>
+        <v>0.333</v>
       </c>
       <c r="Y30">
         <v>0.724</v>
       </c>
       <c r="Z30">
-        <v>12.9</v>
+        <v>13.6</v>
       </c>
       <c r="AA30">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="AB30">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AC30">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AD30" t="s">
         <v>179</v>
@@ -3685,76 +3679,76 @@
         <v>23</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="H31">
-        <v>2883</v>
+        <v>189</v>
       </c>
       <c r="I31">
-        <v>266</v>
+        <v>19</v>
       </c>
       <c r="J31">
-        <v>694</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="L31">
-        <v>360</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="N31">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="O31">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="P31">
-        <v>400</v>
+        <v>22</v>
       </c>
       <c r="Q31">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="R31">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="S31">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="T31">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="U31">
-        <v>297</v>
+        <v>18</v>
       </c>
       <c r="V31">
-        <v>757</v>
+        <v>57</v>
       </c>
       <c r="W31">
-        <v>0.383</v>
+        <v>0.475</v>
       </c>
       <c r="X31">
-        <v>0.333</v>
+        <v>0.6</v>
       </c>
       <c r="Y31">
-        <v>0.6909999999999999</v>
+        <v>0.667</v>
       </c>
       <c r="Z31">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AA31">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="AB31">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="AC31">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AD31" t="s">
         <v>179</v>
@@ -3869,73 +3863,73 @@
         <v>22</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="H33">
-        <v>2987</v>
+        <v>1474</v>
       </c>
       <c r="I33">
-        <v>314</v>
+        <v>117</v>
       </c>
       <c r="J33">
-        <v>842</v>
+        <v>360</v>
       </c>
       <c r="K33">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="L33">
-        <v>323</v>
+        <v>156</v>
       </c>
       <c r="M33">
-        <v>289</v>
+        <v>148</v>
       </c>
       <c r="N33">
-        <v>371</v>
+        <v>194</v>
       </c>
       <c r="O33">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="P33">
-        <v>287</v>
+        <v>136</v>
       </c>
       <c r="Q33">
-        <v>399</v>
+        <v>198</v>
       </c>
       <c r="R33">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="S33">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="T33">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="U33">
-        <v>366</v>
+        <v>194</v>
       </c>
       <c r="V33">
-        <v>1012</v>
+        <v>425</v>
       </c>
       <c r="W33">
-        <v>0.373</v>
+        <v>0.325</v>
       </c>
       <c r="X33">
-        <v>0.294</v>
+        <v>0.276</v>
       </c>
       <c r="Y33">
-        <v>0.779</v>
+        <v>0.763</v>
       </c>
       <c r="Z33">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA33">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="AB33">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AC33">
         <v>2.8</v>
@@ -3961,76 +3955,76 @@
         <v>21</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>205</v>
+        <v>62</v>
       </c>
       <c r="H34">
-        <v>3310</v>
+        <v>842</v>
       </c>
       <c r="I34">
-        <v>368</v>
+        <v>101</v>
       </c>
       <c r="J34">
-        <v>860</v>
+        <v>224</v>
       </c>
       <c r="K34">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="L34">
-        <v>473</v>
+        <v>113</v>
       </c>
       <c r="M34">
-        <v>177</v>
+        <v>57</v>
       </c>
       <c r="N34">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="O34">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="P34">
-        <v>703</v>
+        <v>187</v>
       </c>
       <c r="Q34">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="R34">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="S34">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="T34">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="U34">
-        <v>245</v>
+        <v>62</v>
       </c>
       <c r="V34">
-        <v>1083</v>
+        <v>305</v>
       </c>
       <c r="W34">
-        <v>0.428</v>
+        <v>0.451</v>
       </c>
       <c r="X34">
-        <v>0.359</v>
+        <v>0.407</v>
       </c>
       <c r="Y34">
-        <v>0.722</v>
+        <v>0.75</v>
       </c>
       <c r="Z34">
-        <v>16.1</v>
+        <v>13.6</v>
       </c>
       <c r="AA34">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="AB34">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AC34">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AD34" t="s">
         <v>179</v>
@@ -4053,76 +4047,76 @@
         <v>22</v>
       </c>
       <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>72</v>
+      </c>
+      <c r="H35">
+        <v>1324</v>
+      </c>
+      <c r="I35">
+        <v>246</v>
+      </c>
+      <c r="J35">
+        <v>465</v>
+      </c>
+      <c r="K35">
         <v>4</v>
       </c>
-      <c r="G35">
-        <v>209</v>
-      </c>
-      <c r="H35">
-        <v>3006</v>
-      </c>
-      <c r="I35">
-        <v>564</v>
-      </c>
-      <c r="J35">
-        <v>1063</v>
-      </c>
-      <c r="K35">
-        <v>29</v>
-      </c>
       <c r="L35">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="M35">
-        <v>287</v>
+        <v>91</v>
       </c>
       <c r="N35">
-        <v>418</v>
+        <v>125</v>
       </c>
       <c r="O35">
-        <v>391</v>
+        <v>170</v>
       </c>
       <c r="P35">
-        <v>1130</v>
+        <v>502</v>
       </c>
       <c r="Q35">
-        <v>218</v>
+        <v>96</v>
       </c>
       <c r="R35">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="S35">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="T35">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="U35">
-        <v>344</v>
+        <v>150</v>
       </c>
       <c r="V35">
-        <v>1444</v>
+        <v>587</v>
       </c>
       <c r="W35">
-        <v>0.531</v>
+        <v>0.529</v>
       </c>
       <c r="X35">
-        <v>0.33</v>
+        <v>0.267</v>
       </c>
       <c r="Y35">
-        <v>0.6870000000000001</v>
+        <v>0.728</v>
       </c>
       <c r="Z35">
-        <v>14.4</v>
+        <v>18.4</v>
       </c>
       <c r="AA35">
-        <v>6.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AB35">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="AC35">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AD35" t="s">
         <v>179</v>
@@ -4145,76 +4139,76 @@
         <v>24</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>309</v>
+        <v>82</v>
       </c>
       <c r="H36">
-        <v>8591</v>
+        <v>1888</v>
       </c>
       <c r="I36">
-        <v>1824</v>
+        <v>327</v>
       </c>
       <c r="J36">
-        <v>4135</v>
+        <v>767</v>
       </c>
       <c r="K36">
-        <v>847</v>
+        <v>148</v>
       </c>
       <c r="L36">
-        <v>2064</v>
+        <v>379</v>
       </c>
       <c r="M36">
-        <v>419</v>
+        <v>64</v>
       </c>
       <c r="N36">
-        <v>484</v>
+        <v>76</v>
       </c>
       <c r="O36">
-        <v>253</v>
+        <v>35</v>
       </c>
       <c r="P36">
-        <v>1298</v>
+        <v>269</v>
       </c>
       <c r="Q36">
-        <v>679</v>
+        <v>121</v>
       </c>
       <c r="R36">
-        <v>242</v>
+        <v>38</v>
       </c>
       <c r="S36">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="T36">
-        <v>524</v>
+        <v>101</v>
       </c>
       <c r="U36">
-        <v>617</v>
+        <v>115</v>
       </c>
       <c r="V36">
-        <v>4914</v>
+        <v>866</v>
       </c>
       <c r="W36">
-        <v>0.441</v>
+        <v>0.426</v>
       </c>
       <c r="X36">
-        <v>0.41</v>
+        <v>0.391</v>
       </c>
       <c r="Y36">
-        <v>0.866</v>
+        <v>0.842</v>
       </c>
       <c r="Z36">
-        <v>27.8</v>
+        <v>23</v>
       </c>
       <c r="AA36">
-        <v>15.9</v>
+        <v>10.6</v>
       </c>
       <c r="AB36">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="AC36">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="AD36" t="s">
         <v>179</v>
@@ -4237,76 +4231,67 @@
         <v>23</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>3164</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>559</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="O37">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>468</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="U37">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>1131</v>
-      </c>
-      <c r="W37">
-        <v>0.442</v>
-      </c>
-      <c r="X37">
-        <v>0.372</v>
-      </c>
-      <c r="Y37">
-        <v>0.797</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>25.9</v>
+        <v>1</v>
       </c>
       <c r="AA37">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB37">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="AC37">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AD37" t="s">
         <v>179</v>
@@ -4329,76 +4314,76 @@
         <v>19</v>
       </c>
       <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>79</v>
+      </c>
+      <c r="H38">
+        <v>2279</v>
+      </c>
+      <c r="I38">
+        <v>276</v>
+      </c>
+      <c r="J38">
+        <v>686</v>
+      </c>
+      <c r="K38">
+        <v>55</v>
+      </c>
+      <c r="L38">
+        <v>187</v>
+      </c>
+      <c r="M38">
+        <v>133</v>
+      </c>
+      <c r="N38">
+        <v>214</v>
+      </c>
+      <c r="O38">
+        <v>60</v>
+      </c>
+      <c r="P38">
+        <v>316</v>
+      </c>
+      <c r="Q38">
+        <v>166</v>
+      </c>
+      <c r="R38">
+        <v>50</v>
+      </c>
+      <c r="S38">
+        <v>36</v>
+      </c>
+      <c r="T38">
+        <v>116</v>
+      </c>
+      <c r="U38">
+        <v>158</v>
+      </c>
+      <c r="V38">
+        <v>740</v>
+      </c>
+      <c r="W38">
+        <v>0.402</v>
+      </c>
+      <c r="X38">
+        <v>0.294</v>
+      </c>
+      <c r="Y38">
+        <v>0.621</v>
+      </c>
+      <c r="Z38">
+        <v>28.8</v>
+      </c>
+      <c r="AA38">
+        <v>9.4</v>
+      </c>
+      <c r="AB38">
         <v>4</v>
       </c>
-      <c r="G38">
-        <v>247</v>
-      </c>
-      <c r="H38">
-        <v>7965</v>
-      </c>
-      <c r="I38">
-        <v>1472</v>
-      </c>
-      <c r="J38">
-        <v>3202</v>
-      </c>
-      <c r="K38">
-        <v>266</v>
-      </c>
-      <c r="L38">
-        <v>748</v>
-      </c>
-      <c r="M38">
-        <v>810</v>
-      </c>
-      <c r="N38">
-        <v>1123</v>
-      </c>
-      <c r="O38">
-        <v>208</v>
-      </c>
-      <c r="P38">
-        <v>1255</v>
-      </c>
-      <c r="Q38">
-        <v>791</v>
-      </c>
-      <c r="R38">
-        <v>179</v>
-      </c>
-      <c r="S38">
-        <v>148</v>
-      </c>
-      <c r="T38">
-        <v>569</v>
-      </c>
-      <c r="U38">
-        <v>635</v>
-      </c>
-      <c r="V38">
-        <v>4020</v>
-      </c>
-      <c r="W38">
-        <v>0.46</v>
-      </c>
-      <c r="X38">
-        <v>0.356</v>
-      </c>
-      <c r="Y38">
-        <v>0.721</v>
-      </c>
-      <c r="Z38">
-        <v>32.2</v>
-      </c>
-      <c r="AA38">
-        <v>16.3</v>
-      </c>
-      <c r="AB38">
-        <v>5.1</v>
-      </c>
       <c r="AC38">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="AD38" t="s">
         <v>179</v>
@@ -4421,76 +4406,76 @@
         <v>22</v>
       </c>
       <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <v>17</v>
+      </c>
+      <c r="I39">
         <v>3</v>
       </c>
-      <c r="G39">
-        <v>26</v>
-      </c>
-      <c r="H39">
-        <v>136</v>
-      </c>
-      <c r="I39">
-        <v>18</v>
-      </c>
       <c r="J39">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>6</v>
+      </c>
+      <c r="O39">
+        <v>2</v>
+      </c>
+      <c r="P39">
         <v>4</v>
       </c>
-      <c r="L39">
-        <v>14</v>
-      </c>
-      <c r="M39">
-        <v>8</v>
-      </c>
-      <c r="N39">
-        <v>12</v>
-      </c>
-      <c r="O39">
-        <v>9</v>
-      </c>
-      <c r="P39">
-        <v>19</v>
-      </c>
       <c r="Q39">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="R39">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U39">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="W39">
-        <v>0.486</v>
+        <v>0.75</v>
       </c>
       <c r="X39">
-        <v>0.286</v>
+        <v>1</v>
       </c>
       <c r="Y39">
-        <v>0.667</v>
+        <v>0.5</v>
       </c>
       <c r="Z39">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="AA39">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AB39">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AC39">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AD39" t="s">
         <v>179</v>
@@ -4605,76 +4590,70 @@
         <v>22</v>
       </c>
       <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>9</v>
+      </c>
+      <c r="I41">
         <v>2</v>
       </c>
-      <c r="G41">
-        <v>21</v>
-      </c>
-      <c r="H41">
-        <v>107</v>
-      </c>
-      <c r="I41">
-        <v>22</v>
-      </c>
       <c r="J41">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
         <v>3</v>
       </c>
-      <c r="N41">
-        <v>5</v>
-      </c>
-      <c r="O41">
-        <v>10</v>
-      </c>
-      <c r="P41">
-        <v>34</v>
-      </c>
       <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>2</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>4</v>
+      </c>
+      <c r="W41">
+        <v>0.286</v>
+      </c>
+      <c r="Z41">
         <v>3</v>
       </c>
-      <c r="R41">
-        <v>11</v>
-      </c>
-      <c r="S41">
-        <v>7</v>
-      </c>
-      <c r="T41">
-        <v>6</v>
-      </c>
-      <c r="U41">
-        <v>13</v>
-      </c>
-      <c r="V41">
-        <v>47</v>
-      </c>
-      <c r="W41">
-        <v>0.449</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <v>0.6</v>
-      </c>
-      <c r="Z41">
-        <v>5.1</v>
-      </c>
       <c r="AA41">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="AB41">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AC41">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AD41" t="s">
         <v>179</v>
@@ -4697,76 +4676,73 @@
         <v>21</v>
       </c>
       <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+      <c r="H42">
+        <v>85</v>
+      </c>
+      <c r="I42">
+        <v>8</v>
+      </c>
+      <c r="J42">
+        <v>16</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>3</v>
+      </c>
+      <c r="N42">
+        <v>10</v>
+      </c>
+      <c r="O42">
+        <v>9</v>
+      </c>
+      <c r="P42">
+        <v>23</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
         <v>4</v>
       </c>
-      <c r="G42">
-        <v>104</v>
-      </c>
-      <c r="H42">
-        <v>1471</v>
-      </c>
-      <c r="I42">
-        <v>193</v>
-      </c>
-      <c r="J42">
-        <v>290</v>
-      </c>
-      <c r="K42">
-        <v>2</v>
-      </c>
-      <c r="L42">
-        <v>9</v>
-      </c>
-      <c r="M42">
-        <v>92</v>
-      </c>
-      <c r="N42">
-        <v>136</v>
-      </c>
-      <c r="O42">
-        <v>119</v>
-      </c>
-      <c r="P42">
-        <v>318</v>
-      </c>
-      <c r="Q42">
-        <v>65</v>
-      </c>
-      <c r="R42">
-        <v>40</v>
-      </c>
-      <c r="S42">
-        <v>72</v>
-      </c>
       <c r="T42">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="U42">
-        <v>241</v>
+        <v>15</v>
       </c>
       <c r="V42">
-        <v>480</v>
+        <v>19</v>
       </c>
       <c r="W42">
-        <v>0.666</v>
-      </c>
-      <c r="X42">
-        <v>0.222</v>
+        <v>0.5</v>
       </c>
       <c r="Y42">
-        <v>0.676</v>
+        <v>0.3</v>
       </c>
       <c r="Z42">
-        <v>14.1</v>
+        <v>8.5</v>
       </c>
       <c r="AA42">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="AB42">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="AC42">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AD42" t="s">
         <v>179</v>
@@ -4789,76 +4765,76 @@
         <v>19</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="H43">
-        <v>3192</v>
+        <v>545</v>
       </c>
       <c r="I43">
-        <v>415</v>
+        <v>68</v>
       </c>
       <c r="J43">
-        <v>821</v>
+        <v>121</v>
       </c>
       <c r="K43">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="L43">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="M43">
-        <v>207</v>
+        <v>29</v>
       </c>
       <c r="N43">
-        <v>300</v>
+        <v>41</v>
       </c>
       <c r="O43">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="P43">
-        <v>570</v>
+        <v>79</v>
       </c>
       <c r="Q43">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="R43">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="S43">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="T43">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="U43">
-        <v>324</v>
+        <v>63</v>
       </c>
       <c r="V43">
-        <v>1105</v>
+        <v>168</v>
       </c>
       <c r="W43">
-        <v>0.505</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="X43">
-        <v>0.276</v>
+        <v>0.273</v>
       </c>
       <c r="Y43">
-        <v>0.6899999999999999</v>
+        <v>0.707</v>
       </c>
       <c r="Z43">
-        <v>19.6</v>
+        <v>17</v>
       </c>
       <c r="AA43">
-        <v>6.8</v>
+        <v>5.3</v>
       </c>
       <c r="AB43">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="AC43">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="AD43" t="s">
         <v>179</v>
@@ -4881,19 +4857,19 @@
         <v>27</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H44">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="I44">
         <v>158</v>
       </c>
       <c r="J44">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K44">
         <v>54</v>
@@ -4932,7 +4908,7 @@
         <v>425</v>
       </c>
       <c r="W44">
-        <v>0.426</v>
+        <v>0.428</v>
       </c>
       <c r="X44">
         <v>0.321</v>
@@ -4941,13 +4917,13 @@
         <v>0.8090000000000001</v>
       </c>
       <c r="Z44">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="AA44">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB44">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AC44">
         <v>1</v>
@@ -4973,76 +4949,76 @@
         <v>20</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="H45">
-        <v>2595</v>
+        <v>612</v>
       </c>
       <c r="I45">
-        <v>429</v>
+        <v>117</v>
       </c>
       <c r="J45">
-        <v>872</v>
+        <v>218</v>
       </c>
       <c r="K45">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="L45">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="M45">
-        <v>181</v>
+        <v>52</v>
       </c>
       <c r="N45">
-        <v>242</v>
+        <v>74</v>
       </c>
       <c r="O45">
-        <v>224</v>
+        <v>51</v>
       </c>
       <c r="P45">
-        <v>662</v>
+        <v>162</v>
       </c>
       <c r="Q45">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="R45">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="S45">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="T45">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="U45">
-        <v>314</v>
+        <v>64</v>
       </c>
       <c r="V45">
-        <v>1069</v>
+        <v>289</v>
       </c>
       <c r="W45">
-        <v>0.492</v>
+        <v>0.537</v>
       </c>
       <c r="X45">
-        <v>0.353</v>
+        <v>0.375</v>
       </c>
       <c r="Y45">
-        <v>0.748</v>
+        <v>0.703</v>
       </c>
       <c r="Z45">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA45">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB45">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="AC45">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AD45" t="s">
         <v>179</v>
@@ -5157,76 +5133,76 @@
         <v>22</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="H47">
-        <v>2241</v>
+        <v>249</v>
       </c>
       <c r="I47">
-        <v>337</v>
+        <v>26</v>
       </c>
       <c r="J47">
-        <v>739</v>
+        <v>89</v>
       </c>
       <c r="K47">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="L47">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="M47">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="N47">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="O47">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="P47">
-        <v>314</v>
+        <v>24</v>
       </c>
       <c r="Q47">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="R47">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="S47">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="T47">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="U47">
-        <v>198</v>
+        <v>22</v>
       </c>
       <c r="V47">
-        <v>863</v>
+        <v>78</v>
       </c>
       <c r="W47">
-        <v>0.456</v>
+        <v>0.292</v>
       </c>
       <c r="X47">
-        <v>0.309</v>
+        <v>0.255</v>
       </c>
       <c r="Y47">
-        <v>0.724</v>
+        <v>0.765</v>
       </c>
       <c r="Z47">
-        <v>13.7</v>
+        <v>7.1</v>
       </c>
       <c r="AA47">
-        <v>5.3</v>
+        <v>2.2</v>
       </c>
       <c r="AB47">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="AC47">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD47" t="s">
         <v>179</v>
@@ -5249,76 +5225,76 @@
         <v>22</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>208</v>
+        <v>57</v>
       </c>
       <c r="H48">
-        <v>5323</v>
+        <v>1237</v>
       </c>
       <c r="I48">
-        <v>957</v>
+        <v>171</v>
       </c>
       <c r="J48">
-        <v>2224</v>
+        <v>380</v>
       </c>
       <c r="K48">
-        <v>264</v>
+        <v>59</v>
       </c>
       <c r="L48">
-        <v>776</v>
+        <v>184</v>
       </c>
       <c r="M48">
-        <v>404</v>
+        <v>67</v>
       </c>
       <c r="N48">
-        <v>568</v>
+        <v>93</v>
       </c>
       <c r="O48">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="P48">
-        <v>760</v>
+        <v>188</v>
       </c>
       <c r="Q48">
-        <v>731</v>
+        <v>110</v>
       </c>
       <c r="R48">
-        <v>218</v>
+        <v>49</v>
       </c>
       <c r="S48">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="T48">
-        <v>383</v>
+        <v>59</v>
       </c>
       <c r="U48">
-        <v>399</v>
+        <v>91</v>
       </c>
       <c r="V48">
-        <v>2582</v>
+        <v>468</v>
       </c>
       <c r="W48">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="X48">
-        <v>0.34</v>
+        <v>0.321</v>
       </c>
       <c r="Y48">
-        <v>0.711</v>
+        <v>0.72</v>
       </c>
       <c r="Z48">
-        <v>25.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA48">
-        <v>12.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AB48">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="AC48">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="AD48" t="s">
         <v>179</v>
@@ -5433,76 +5409,76 @@
         <v>21</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>211</v>
+        <v>69</v>
       </c>
       <c r="H50">
-        <v>3358</v>
+        <v>1190</v>
       </c>
       <c r="I50">
-        <v>413</v>
+        <v>145</v>
       </c>
       <c r="J50">
-        <v>1050</v>
+        <v>361</v>
       </c>
       <c r="K50">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c r="L50">
-        <v>552</v>
+        <v>161</v>
       </c>
       <c r="M50">
-        <v>237</v>
+        <v>105</v>
       </c>
       <c r="N50">
-        <v>288</v>
+        <v>123</v>
       </c>
       <c r="O50">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="P50">
-        <v>413</v>
+        <v>149</v>
       </c>
       <c r="Q50">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="R50">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="S50">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T50">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="U50">
-        <v>408</v>
+        <v>154</v>
       </c>
       <c r="V50">
-        <v>1246</v>
+        <v>445</v>
       </c>
       <c r="W50">
-        <v>0.393</v>
+        <v>0.402</v>
       </c>
       <c r="X50">
-        <v>0.332</v>
+        <v>0.311</v>
       </c>
       <c r="Y50">
-        <v>0.823</v>
+        <v>0.854</v>
       </c>
       <c r="Z50">
-        <v>15.9</v>
+        <v>17.2</v>
       </c>
       <c r="AA50">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AB50">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AC50">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AD50" t="s">
         <v>179</v>
@@ -5617,76 +5593,76 @@
         <v>19</v>
       </c>
       <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>57</v>
+      </c>
+      <c r="H52">
+        <v>562</v>
+      </c>
+      <c r="I52">
+        <v>83</v>
+      </c>
+      <c r="J52">
+        <v>181</v>
+      </c>
+      <c r="K52">
+        <v>28</v>
+      </c>
+      <c r="L52">
+        <v>74</v>
+      </c>
+      <c r="M52">
+        <v>32</v>
+      </c>
+      <c r="N52">
+        <v>49</v>
+      </c>
+      <c r="O52">
+        <v>40</v>
+      </c>
+      <c r="P52">
+        <v>114</v>
+      </c>
+      <c r="Q52">
+        <v>23</v>
+      </c>
+      <c r="R52">
+        <v>10</v>
+      </c>
+      <c r="S52">
+        <v>26</v>
+      </c>
+      <c r="T52">
+        <v>17</v>
+      </c>
+      <c r="U52">
+        <v>84</v>
+      </c>
+      <c r="V52">
+        <v>226</v>
+      </c>
+      <c r="W52">
+        <v>0.459</v>
+      </c>
+      <c r="X52">
+        <v>0.378</v>
+      </c>
+      <c r="Y52">
+        <v>0.653</v>
+      </c>
+      <c r="Z52">
+        <v>9.9</v>
+      </c>
+      <c r="AA52">
         <v>4</v>
       </c>
-      <c r="G52">
-        <v>255</v>
-      </c>
-      <c r="H52">
-        <v>3548</v>
-      </c>
-      <c r="I52">
-        <v>415</v>
-      </c>
-      <c r="J52">
-        <v>958</v>
-      </c>
-      <c r="K52">
-        <v>130</v>
-      </c>
-      <c r="L52">
-        <v>395</v>
-      </c>
-      <c r="M52">
-        <v>226</v>
-      </c>
-      <c r="N52">
-        <v>336</v>
-      </c>
-      <c r="O52">
-        <v>210</v>
-      </c>
-      <c r="P52">
-        <v>708</v>
-      </c>
-      <c r="Q52">
-        <v>157</v>
-      </c>
-      <c r="R52">
-        <v>94</v>
-      </c>
-      <c r="S52">
-        <v>169</v>
-      </c>
-      <c r="T52">
-        <v>139</v>
-      </c>
-      <c r="U52">
-        <v>453</v>
-      </c>
-      <c r="V52">
-        <v>1186</v>
-      </c>
-      <c r="W52">
-        <v>0.433</v>
-      </c>
-      <c r="X52">
-        <v>0.329</v>
-      </c>
-      <c r="Y52">
-        <v>0.673</v>
-      </c>
-      <c r="Z52">
-        <v>13.9</v>
-      </c>
-      <c r="AA52">
-        <v>4.7</v>
-      </c>
       <c r="AB52">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="AC52">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AD52" t="s">
         <v>179</v>
@@ -5709,76 +5685,76 @@
         <v>21</v>
       </c>
       <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>71</v>
+      </c>
+      <c r="H53">
+        <v>1074</v>
+      </c>
+      <c r="I53">
+        <v>106</v>
+      </c>
+      <c r="J53">
+        <v>245</v>
+      </c>
+      <c r="K53">
+        <v>41</v>
+      </c>
+      <c r="L53">
+        <v>123</v>
+      </c>
+      <c r="M53">
+        <v>29</v>
+      </c>
+      <c r="N53">
+        <v>37</v>
+      </c>
+      <c r="O53">
+        <v>21</v>
+      </c>
+      <c r="P53">
+        <v>100</v>
+      </c>
+      <c r="Q53">
+        <v>77</v>
+      </c>
+      <c r="R53">
+        <v>32</v>
+      </c>
+      <c r="S53">
+        <v>15</v>
+      </c>
+      <c r="T53">
+        <v>36</v>
+      </c>
+      <c r="U53">
+        <v>62</v>
+      </c>
+      <c r="V53">
+        <v>282</v>
+      </c>
+      <c r="W53">
+        <v>0.433</v>
+      </c>
+      <c r="X53">
+        <v>0.333</v>
+      </c>
+      <c r="Y53">
+        <v>0.784</v>
+      </c>
+      <c r="Z53">
+        <v>15.1</v>
+      </c>
+      <c r="AA53">
         <v>4</v>
       </c>
-      <c r="G53">
-        <v>194</v>
-      </c>
-      <c r="H53">
-        <v>3340</v>
-      </c>
-      <c r="I53">
-        <v>291</v>
-      </c>
-      <c r="J53">
-        <v>695</v>
-      </c>
-      <c r="K53">
-        <v>92</v>
-      </c>
-      <c r="L53">
-        <v>302</v>
-      </c>
-      <c r="M53">
-        <v>81</v>
-      </c>
-      <c r="N53">
-        <v>104</v>
-      </c>
-      <c r="O53">
-        <v>63</v>
-      </c>
-      <c r="P53">
-        <v>316</v>
-      </c>
-      <c r="Q53">
-        <v>266</v>
-      </c>
-      <c r="R53">
-        <v>137</v>
-      </c>
-      <c r="S53">
-        <v>31</v>
-      </c>
-      <c r="T53">
-        <v>123</v>
-      </c>
-      <c r="U53">
-        <v>227</v>
-      </c>
-      <c r="V53">
-        <v>755</v>
-      </c>
-      <c r="W53">
-        <v>0.419</v>
-      </c>
-      <c r="X53">
-        <v>0.305</v>
-      </c>
-      <c r="Y53">
-        <v>0.779</v>
-      </c>
-      <c r="Z53">
-        <v>17.2</v>
-      </c>
-      <c r="AA53">
-        <v>3.9</v>
-      </c>
       <c r="AB53">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AC53">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AD53" t="s">
         <v>179</v>
@@ -5801,76 +5777,76 @@
         <v>25</v>
       </c>
       <c r="F54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="H54">
-        <v>4564</v>
+        <v>1966</v>
       </c>
       <c r="I54">
-        <v>473</v>
+        <v>190</v>
       </c>
       <c r="J54">
-        <v>1150</v>
+        <v>460</v>
       </c>
       <c r="K54">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="L54">
-        <v>559</v>
+        <v>220</v>
       </c>
       <c r="M54">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="N54">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="O54">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="P54">
-        <v>655</v>
+        <v>256</v>
       </c>
       <c r="Q54">
-        <v>283</v>
+        <v>124</v>
       </c>
       <c r="R54">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="S54">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="T54">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="U54">
-        <v>343</v>
+        <v>140</v>
       </c>
       <c r="V54">
-        <v>1250</v>
+        <v>497</v>
       </c>
       <c r="W54">
-        <v>0.411</v>
+        <v>0.413</v>
       </c>
       <c r="X54">
-        <v>0.338</v>
+        <v>0.332</v>
       </c>
       <c r="Y54">
-        <v>0.642</v>
+        <v>0.62</v>
       </c>
       <c r="Z54">
-        <v>21.5</v>
+        <v>25.2</v>
       </c>
       <c r="AA54">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AB54">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AC54">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AD54" t="s">
         <v>179</v>
@@ -5893,76 +5869,76 @@
         <v>20</v>
       </c>
       <c r="F55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="H55">
-        <v>3533</v>
+        <v>322</v>
       </c>
       <c r="I55">
-        <v>580</v>
+        <v>50</v>
       </c>
       <c r="J55">
-        <v>1273</v>
+        <v>116</v>
       </c>
       <c r="K55">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="L55">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="M55">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="N55">
-        <v>272</v>
+        <v>30</v>
       </c>
       <c r="O55">
-        <v>183</v>
+        <v>6</v>
       </c>
       <c r="P55">
-        <v>840</v>
+        <v>42</v>
       </c>
       <c r="Q55">
-        <v>520</v>
+        <v>48</v>
       </c>
       <c r="R55">
-        <v>205</v>
+        <v>8</v>
       </c>
       <c r="S55">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="T55">
-        <v>282</v>
+        <v>38</v>
       </c>
       <c r="U55">
-        <v>313</v>
+        <v>29</v>
       </c>
       <c r="V55">
-        <v>1414</v>
+        <v>130</v>
       </c>
       <c r="W55">
-        <v>0.456</v>
+        <v>0.431</v>
       </c>
       <c r="X55">
-        <v>0.356</v>
+        <v>0.391</v>
       </c>
       <c r="Y55">
-        <v>0.739</v>
+        <v>0.7</v>
       </c>
       <c r="Z55">
-        <v>19.8</v>
+        <v>8.5</v>
       </c>
       <c r="AA55">
-        <v>7.9</v>
+        <v>3.4</v>
       </c>
       <c r="AB55">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="AC55">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="AD55" t="s">
         <v>179</v>
@@ -5985,76 +5961,76 @@
         <v>19</v>
       </c>
       <c r="F56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>293</v>
+        <v>82</v>
       </c>
       <c r="H56">
-        <v>8580</v>
+        <v>1764</v>
       </c>
       <c r="I56">
-        <v>1672</v>
+        <v>295</v>
       </c>
       <c r="J56">
-        <v>3811</v>
+        <v>730</v>
       </c>
       <c r="K56">
-        <v>537</v>
+        <v>115</v>
       </c>
       <c r="L56">
-        <v>1498</v>
+        <v>344</v>
       </c>
       <c r="M56">
-        <v>682</v>
+        <v>106</v>
       </c>
       <c r="N56">
-        <v>773</v>
+        <v>120</v>
       </c>
       <c r="O56">
-        <v>230</v>
+        <v>41</v>
       </c>
       <c r="P56">
-        <v>1045</v>
+        <v>214</v>
       </c>
       <c r="Q56">
-        <v>1073</v>
+        <v>170</v>
       </c>
       <c r="R56">
-        <v>261</v>
+        <v>51</v>
       </c>
       <c r="S56">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="T56">
-        <v>567</v>
+        <v>113</v>
       </c>
       <c r="U56">
-        <v>547</v>
+        <v>124</v>
       </c>
       <c r="V56">
-        <v>4563</v>
+        <v>811</v>
       </c>
       <c r="W56">
-        <v>0.439</v>
+        <v>0.404</v>
       </c>
       <c r="X56">
-        <v>0.358</v>
+        <v>0.334</v>
       </c>
       <c r="Y56">
-        <v>0.882</v>
+        <v>0.883</v>
       </c>
       <c r="Z56">
-        <v>29.3</v>
+        <v>21.5</v>
       </c>
       <c r="AA56">
-        <v>15.6</v>
+        <v>9.9</v>
       </c>
       <c r="AB56">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="AC56">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="AD56" t="s">
         <v>179</v>
@@ -6169,76 +6145,76 @@
         <v>23</v>
       </c>
       <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>23</v>
+      </c>
+      <c r="H58">
+        <v>93</v>
+      </c>
+      <c r="I58">
+        <v>9</v>
+      </c>
+      <c r="J58">
+        <v>36</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>12</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <v>2</v>
+      </c>
+      <c r="P58">
+        <v>17</v>
+      </c>
+      <c r="Q58">
+        <v>5</v>
+      </c>
+      <c r="R58">
+        <v>3</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>5</v>
+      </c>
+      <c r="U58">
+        <v>6</v>
+      </c>
+      <c r="V58">
+        <v>21</v>
+      </c>
+      <c r="W58">
+        <v>0.25</v>
+      </c>
+      <c r="X58">
+        <v>0.083</v>
+      </c>
+      <c r="Y58">
+        <v>1</v>
+      </c>
+      <c r="Z58">
         <v>4</v>
       </c>
-      <c r="G58">
-        <v>150</v>
-      </c>
-      <c r="H58">
-        <v>1426</v>
-      </c>
-      <c r="I58">
-        <v>219</v>
-      </c>
-      <c r="J58">
-        <v>499</v>
-      </c>
-      <c r="K58">
-        <v>121</v>
-      </c>
-      <c r="L58">
-        <v>309</v>
-      </c>
-      <c r="M58">
-        <v>42</v>
-      </c>
-      <c r="N58">
-        <v>50</v>
-      </c>
-      <c r="O58">
-        <v>30</v>
-      </c>
-      <c r="P58">
-        <v>224</v>
-      </c>
-      <c r="Q58">
-        <v>78</v>
-      </c>
-      <c r="R58">
-        <v>28</v>
-      </c>
-      <c r="S58">
-        <v>11</v>
-      </c>
-      <c r="T58">
-        <v>57</v>
-      </c>
-      <c r="U58">
-        <v>129</v>
-      </c>
-      <c r="V58">
-        <v>601</v>
-      </c>
-      <c r="W58">
-        <v>0.439</v>
-      </c>
-      <c r="X58">
-        <v>0.392</v>
-      </c>
-      <c r="Y58">
-        <v>0.84</v>
-      </c>
-      <c r="Z58">
-        <v>9.5</v>
-      </c>
       <c r="AA58">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="AB58">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="AC58">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AD58" t="s">
         <v>179</v>
@@ -6261,76 +6237,76 @@
         <v>24</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="H59">
-        <v>3295</v>
+        <v>397</v>
       </c>
       <c r="I59">
-        <v>412</v>
+        <v>47</v>
       </c>
       <c r="J59">
-        <v>837</v>
+        <v>81</v>
       </c>
       <c r="K59">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="L59">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="M59">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="N59">
-        <v>354</v>
+        <v>39</v>
       </c>
       <c r="O59">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="P59">
-        <v>597</v>
+        <v>63</v>
       </c>
       <c r="Q59">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="R59">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="S59">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="T59">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="U59">
-        <v>332</v>
+        <v>36</v>
       </c>
       <c r="V59">
-        <v>1113</v>
+        <v>120</v>
       </c>
       <c r="W59">
-        <v>0.492</v>
+        <v>0.58</v>
       </c>
       <c r="X59">
-        <v>0.344</v>
+        <v>0.2</v>
       </c>
       <c r="Y59">
-        <v>0.661</v>
+        <v>0.641</v>
       </c>
       <c r="Z59">
-        <v>20.5</v>
+        <v>19.9</v>
       </c>
       <c r="AA59">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="AB59">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="AC59">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="AD59" t="s">
         <v>179</v>
@@ -6442,19 +6418,19 @@
         <v>20</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H61">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="I61">
+        <v>5</v>
+      </c>
+      <c r="J61">
         <v>7</v>
-      </c>
-      <c r="J61">
-        <v>12</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -6469,13 +6445,13 @@
         <v>4</v>
       </c>
       <c r="O61">
+        <v>2</v>
+      </c>
+      <c r="P61">
+        <v>10</v>
+      </c>
+      <c r="Q61">
         <v>3</v>
-      </c>
-      <c r="P61">
-        <v>14</v>
-      </c>
-      <c r="Q61">
-        <v>4</v>
       </c>
       <c r="R61">
         <v>3</v>
@@ -6484,31 +6460,31 @@
         <v>1</v>
       </c>
       <c r="T61">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U61">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="V61">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="W61">
-        <v>0.583</v>
+        <v>0.714</v>
       </c>
       <c r="Y61">
         <v>1</v>
       </c>
       <c r="Z61">
-        <v>12.3</v>
+        <v>10.4</v>
       </c>
       <c r="AA61">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AB61">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AC61">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AD61" t="s">
         <v>179</v>
@@ -6531,19 +6507,19 @@
         <v>19</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H62">
-        <v>477</v>
+        <v>355</v>
       </c>
       <c r="I62">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="J62">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -6558,31 +6534,31 @@
         <v>14</v>
       </c>
       <c r="O62">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="P62">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="Q62">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="R62">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S62">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="T62">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="U62">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="V62">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="W62">
-        <v>0.514</v>
+        <v>0.549</v>
       </c>
       <c r="X62">
         <v>0</v>
@@ -6591,16 +6567,16 @@
         <v>0.857</v>
       </c>
       <c r="Z62">
-        <v>12.2</v>
+        <v>16.1</v>
       </c>
       <c r="AA62">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="AB62">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="AC62">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AD62" t="s">
         <v>179</v>
@@ -6623,76 +6599,76 @@
         <v>24</v>
       </c>
       <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>6</v>
+      </c>
+      <c r="H63">
+        <v>99</v>
+      </c>
+      <c r="I63">
+        <v>8</v>
+      </c>
+      <c r="J63">
+        <v>22</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>9</v>
+      </c>
+      <c r="M63">
+        <v>3</v>
+      </c>
+      <c r="N63">
+        <v>5</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>12</v>
+      </c>
+      <c r="Q63">
+        <v>13</v>
+      </c>
+      <c r="R63">
+        <v>3</v>
+      </c>
+      <c r="S63">
         <v>4</v>
       </c>
-      <c r="G63">
-        <v>61</v>
-      </c>
-      <c r="H63">
-        <v>768</v>
-      </c>
-      <c r="I63">
-        <v>91</v>
-      </c>
-      <c r="J63">
-        <v>220</v>
-      </c>
-      <c r="K63">
-        <v>21</v>
-      </c>
-      <c r="L63">
-        <v>82</v>
-      </c>
-      <c r="M63">
+      <c r="T63">
         <v>10</v>
       </c>
-      <c r="N63">
-        <v>22</v>
-      </c>
-      <c r="O63">
-        <v>40</v>
-      </c>
-      <c r="P63">
-        <v>138</v>
-      </c>
-      <c r="Q63">
-        <v>86</v>
-      </c>
-      <c r="R63">
-        <v>46</v>
-      </c>
-      <c r="S63">
-        <v>15</v>
-      </c>
-      <c r="T63">
-        <v>38</v>
-      </c>
       <c r="U63">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="V63">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="W63">
-        <v>0.414</v>
+        <v>0.364</v>
       </c>
       <c r="X63">
-        <v>0.256</v>
+        <v>0.111</v>
       </c>
       <c r="Y63">
-        <v>0.455</v>
+        <v>0.6</v>
       </c>
       <c r="Z63">
-        <v>12.6</v>
+        <v>16.5</v>
       </c>
       <c r="AA63">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AB63">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AC63">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="AD63" t="s">
         <v>179</v>
@@ -6715,19 +6691,19 @@
         <v>24</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H64">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="I64">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J64">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -6736,52 +6712,52 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N64">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="O64">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P64">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="Q64">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R64">
         <v>4</v>
       </c>
       <c r="S64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T64">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="U64">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="V64">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="W64">
-        <v>0.515</v>
+        <v>0.533</v>
       </c>
       <c r="Y64">
-        <v>0.571</v>
+        <v>0.421</v>
       </c>
       <c r="Z64">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="AA64">
         <v>1.9</v>
       </c>
       <c r="AB64">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AC64">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD64" t="s">
         <v>179</v>
@@ -6804,76 +6780,73 @@
         <v>21</v>
       </c>
       <c r="F65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>272</v>
+        <v>54</v>
       </c>
       <c r="H65">
-        <v>4420</v>
+        <v>626</v>
       </c>
       <c r="I65">
-        <v>645</v>
+        <v>67</v>
       </c>
       <c r="J65">
-        <v>1014</v>
+        <v>115</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M65">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="N65">
-        <v>326</v>
+        <v>57</v>
       </c>
       <c r="O65">
-        <v>529</v>
+        <v>78</v>
       </c>
       <c r="P65">
-        <v>1284</v>
+        <v>165</v>
       </c>
       <c r="Q65">
-        <v>267</v>
+        <v>12</v>
       </c>
       <c r="R65">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="S65">
-        <v>274</v>
+        <v>20</v>
       </c>
       <c r="T65">
-        <v>207</v>
+        <v>29</v>
       </c>
       <c r="U65">
-        <v>548</v>
+        <v>113</v>
       </c>
       <c r="V65">
-        <v>1468</v>
+        <v>165</v>
       </c>
       <c r="W65">
-        <v>0.636</v>
-      </c>
-      <c r="X65">
-        <v>0.5</v>
+        <v>0.583</v>
       </c>
       <c r="Y65">
-        <v>0.543</v>
+        <v>0.544</v>
       </c>
       <c r="Z65">
-        <v>16.3</v>
+        <v>11.6</v>
       </c>
       <c r="AA65">
-        <v>5.4</v>
+        <v>3.1</v>
       </c>
       <c r="AB65">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="AC65">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AD65" t="s">
         <v>179</v>
@@ -6896,76 +6869,76 @@
         <v>23</v>
       </c>
       <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>6</v>
+      </c>
+      <c r="H66">
+        <v>157</v>
+      </c>
+      <c r="I66">
+        <v>25</v>
+      </c>
+      <c r="J66">
+        <v>54</v>
+      </c>
+      <c r="K66">
+        <v>6</v>
+      </c>
+      <c r="L66">
+        <v>19</v>
+      </c>
+      <c r="M66">
+        <v>8</v>
+      </c>
+      <c r="N66">
+        <v>10</v>
+      </c>
+      <c r="O66">
+        <v>11</v>
+      </c>
+      <c r="P66">
+        <v>29</v>
+      </c>
+      <c r="Q66">
+        <v>5</v>
+      </c>
+      <c r="R66">
         <v>3</v>
       </c>
-      <c r="G66">
-        <v>52</v>
-      </c>
-      <c r="H66">
-        <v>566</v>
-      </c>
-      <c r="I66">
-        <v>76</v>
-      </c>
-      <c r="J66">
-        <v>161</v>
-      </c>
-      <c r="K66">
-        <v>19</v>
-      </c>
-      <c r="L66">
-        <v>53</v>
-      </c>
-      <c r="M66">
-        <v>26</v>
-      </c>
-      <c r="N66">
-        <v>39</v>
-      </c>
-      <c r="O66">
-        <v>47</v>
-      </c>
-      <c r="P66">
-        <v>122</v>
-      </c>
-      <c r="Q66">
-        <v>24</v>
-      </c>
-      <c r="R66">
-        <v>10</v>
-      </c>
       <c r="S66">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="T66">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="U66">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="V66">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="W66">
-        <v>0.472</v>
+        <v>0.463</v>
       </c>
       <c r="X66">
-        <v>0.358</v>
+        <v>0.316</v>
       </c>
       <c r="Y66">
-        <v>0.667</v>
+        <v>0.8</v>
       </c>
       <c r="Z66">
-        <v>10.9</v>
+        <v>26.2</v>
       </c>
       <c r="AA66">
-        <v>3.8</v>
+        <v>10.7</v>
       </c>
       <c r="AB66">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="AC66">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD66" t="s">
         <v>179</v>
@@ -6988,40 +6961,40 @@
         <v>22</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H67">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I67">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J67">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K67">
         <v>5</v>
       </c>
       <c r="L67">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O67">
         <v>4</v>
       </c>
       <c r="P67">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q67">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R67">
         <v>2</v>
@@ -7030,34 +7003,34 @@
         <v>3</v>
       </c>
       <c r="T67">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U67">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V67">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="W67">
-        <v>0.438</v>
+        <v>0.448</v>
       </c>
       <c r="X67">
-        <v>0.333</v>
+        <v>0.385</v>
       </c>
       <c r="Y67">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Z67">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AA67">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AB67">
         <v>0.9</v>
       </c>
       <c r="AC67">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AD67" t="s">
         <v>179</v>
@@ -7080,67 +7053,67 @@
         <v>23</v>
       </c>
       <c r="F68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="H68">
-        <v>1082</v>
+        <v>299</v>
       </c>
       <c r="I68">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="J68">
-        <v>319</v>
+        <v>98</v>
       </c>
       <c r="K68">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="L68">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="M68">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="N68">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="O68">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="P68">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="Q68">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="R68">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="S68">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T68">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="U68">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="V68">
-        <v>413</v>
+        <v>137</v>
       </c>
       <c r="W68">
-        <v>0.411</v>
+        <v>0.408</v>
       </c>
       <c r="X68">
-        <v>0.378</v>
+        <v>0.34</v>
       </c>
       <c r="Y68">
-        <v>0.802</v>
+        <v>0.953</v>
       </c>
       <c r="Z68">
-        <v>13.9</v>
+        <v>11.5</v>
       </c>
       <c r="AA68">
         <v>5.3</v>
@@ -7149,7 +7122,7 @@
         <v>1.2</v>
       </c>
       <c r="AC68">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="AD68" t="s">
         <v>179</v>
@@ -7172,76 +7145,76 @@
         <v>21</v>
       </c>
       <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>22</v>
+      </c>
+      <c r="H69">
+        <v>198</v>
+      </c>
+      <c r="I69">
+        <v>28</v>
+      </c>
+      <c r="J69">
+        <v>68</v>
+      </c>
+      <c r="K69">
+        <v>8</v>
+      </c>
+      <c r="L69">
+        <v>28</v>
+      </c>
+      <c r="M69">
+        <v>15</v>
+      </c>
+      <c r="N69">
+        <v>19</v>
+      </c>
+      <c r="O69">
         <v>3</v>
       </c>
-      <c r="G69">
-        <v>70</v>
-      </c>
-      <c r="H69">
-        <v>625</v>
-      </c>
-      <c r="I69">
-        <v>67</v>
-      </c>
-      <c r="J69">
-        <v>187</v>
-      </c>
-      <c r="K69">
-        <v>28</v>
-      </c>
-      <c r="L69">
-        <v>93</v>
-      </c>
-      <c r="M69">
-        <v>36</v>
-      </c>
-      <c r="N69">
-        <v>46</v>
-      </c>
-      <c r="O69">
-        <v>10</v>
-      </c>
       <c r="P69">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="Q69">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="R69">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="S69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T69">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="U69">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="V69">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="W69">
-        <v>0.358</v>
+        <v>0.412</v>
       </c>
       <c r="X69">
-        <v>0.301</v>
+        <v>0.286</v>
       </c>
       <c r="Y69">
-        <v>0.783</v>
+        <v>0.789</v>
       </c>
       <c r="Z69">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="AA69">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="AB69">
         <v>1</v>
       </c>
       <c r="AC69">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AD69" t="s">
         <v>179</v>
@@ -7264,76 +7237,76 @@
         <v>20</v>
       </c>
       <c r="F70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="H70">
-        <v>7439</v>
+        <v>1632</v>
       </c>
       <c r="I70">
-        <v>1403</v>
+        <v>192</v>
       </c>
       <c r="J70">
-        <v>2690</v>
+        <v>481</v>
       </c>
       <c r="K70">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="L70">
-        <v>280</v>
+        <v>159</v>
       </c>
       <c r="M70">
-        <v>634</v>
+        <v>44</v>
       </c>
       <c r="N70">
-        <v>878</v>
+        <v>67</v>
       </c>
       <c r="O70">
-        <v>586</v>
+        <v>46</v>
       </c>
       <c r="P70">
-        <v>2321</v>
+        <v>288</v>
       </c>
       <c r="Q70">
-        <v>755</v>
+        <v>82</v>
       </c>
       <c r="R70">
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="S70">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="T70">
-        <v>550</v>
+        <v>83</v>
       </c>
       <c r="U70">
-        <v>854</v>
+        <v>200</v>
       </c>
       <c r="V70">
-        <v>3530</v>
+        <v>479</v>
       </c>
       <c r="W70">
-        <v>0.522</v>
+        <v>0.399</v>
       </c>
       <c r="X70">
         <v>0.321</v>
       </c>
       <c r="Y70">
-        <v>0.722</v>
+        <v>0.657</v>
       </c>
       <c r="Z70">
-        <v>25.6</v>
+        <v>20.1</v>
       </c>
       <c r="AA70">
-        <v>12.1</v>
+        <v>5.9</v>
       </c>
       <c r="AB70">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="AC70">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="AD70" t="s">
         <v>179</v>
@@ -7356,76 +7329,76 @@
         <v>22</v>
       </c>
       <c r="F71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>299</v>
+        <v>81</v>
       </c>
       <c r="H71">
-        <v>7931</v>
+        <v>2129</v>
       </c>
       <c r="I71">
-        <v>1309</v>
+        <v>381</v>
       </c>
       <c r="J71">
-        <v>2989</v>
+        <v>927</v>
       </c>
       <c r="K71">
-        <v>456</v>
+        <v>106</v>
       </c>
       <c r="L71">
-        <v>1280</v>
+        <v>341</v>
       </c>
       <c r="M71">
-        <v>567</v>
+        <v>172</v>
       </c>
       <c r="N71">
-        <v>678</v>
+        <v>220</v>
       </c>
       <c r="O71">
-        <v>481</v>
+        <v>112</v>
       </c>
       <c r="P71">
-        <v>1841</v>
+        <v>513</v>
       </c>
       <c r="Q71">
-        <v>623</v>
+        <v>182</v>
       </c>
       <c r="R71">
-        <v>188</v>
+        <v>57</v>
       </c>
       <c r="S71">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="T71">
-        <v>504</v>
+        <v>183</v>
       </c>
       <c r="U71">
-        <v>640</v>
+        <v>162</v>
       </c>
       <c r="V71">
-        <v>3641</v>
+        <v>1040</v>
       </c>
       <c r="W71">
-        <v>0.438</v>
+        <v>0.411</v>
       </c>
       <c r="X71">
-        <v>0.356</v>
+        <v>0.311</v>
       </c>
       <c r="Y71">
-        <v>0.836</v>
+        <v>0.782</v>
       </c>
       <c r="Z71">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="AA71">
-        <v>12.2</v>
+        <v>12.8</v>
       </c>
       <c r="AB71">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AC71">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AD71" t="s">
         <v>179</v>
@@ -7448,76 +7421,76 @@
         <v>25</v>
       </c>
       <c r="F72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>275</v>
+        <v>57</v>
       </c>
       <c r="H72">
-        <v>6404</v>
+        <v>719</v>
       </c>
       <c r="I72">
-        <v>756</v>
+        <v>61</v>
       </c>
       <c r="J72">
-        <v>1612</v>
+        <v>147</v>
       </c>
       <c r="K72">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="L72">
-        <v>499</v>
+        <v>37</v>
       </c>
       <c r="M72">
-        <v>335</v>
+        <v>23</v>
       </c>
       <c r="N72">
-        <v>410</v>
+        <v>33</v>
       </c>
       <c r="O72">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="P72">
-        <v>849</v>
+        <v>83</v>
       </c>
       <c r="Q72">
-        <v>1131</v>
+        <v>92</v>
       </c>
       <c r="R72">
-        <v>240</v>
+        <v>26</v>
       </c>
       <c r="S72">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="T72">
-        <v>371</v>
+        <v>38</v>
       </c>
       <c r="U72">
-        <v>498</v>
+        <v>60</v>
       </c>
       <c r="V72">
-        <v>2031</v>
+        <v>154</v>
       </c>
       <c r="W72">
-        <v>0.469</v>
+        <v>0.415</v>
       </c>
       <c r="X72">
-        <v>0.369</v>
+        <v>0.243</v>
       </c>
       <c r="Y72">
-        <v>0.8169999999999999</v>
+        <v>0.697</v>
       </c>
       <c r="Z72">
-        <v>23.3</v>
+        <v>12.6</v>
       </c>
       <c r="AA72">
-        <v>7.4</v>
+        <v>2.7</v>
       </c>
       <c r="AB72">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="AC72">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="AD72" t="s">
         <v>179</v>
@@ -7540,76 +7513,76 @@
         <v>22</v>
       </c>
       <c r="F73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="H73">
-        <v>2367</v>
+        <v>236</v>
       </c>
       <c r="I73">
-        <v>337</v>
+        <v>25</v>
       </c>
       <c r="J73">
-        <v>810</v>
+        <v>58</v>
       </c>
       <c r="K73">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="L73">
-        <v>324</v>
+        <v>28</v>
       </c>
       <c r="M73">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="N73">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="O73">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="P73">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="Q73">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="R73">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="S73">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="T73">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="U73">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="V73">
-        <v>910</v>
+        <v>71</v>
       </c>
       <c r="W73">
-        <v>0.416</v>
+        <v>0.431</v>
       </c>
       <c r="X73">
-        <v>0.343</v>
+        <v>0.25</v>
       </c>
       <c r="Y73">
-        <v>0.723</v>
+        <v>0.636</v>
       </c>
       <c r="Z73">
-        <v>19.1</v>
+        <v>16.9</v>
       </c>
       <c r="AA73">
-        <v>7.3</v>
+        <v>5.1</v>
       </c>
       <c r="AB73">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="AC73">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="AD73" t="s">
         <v>179</v>
@@ -7632,76 +7605,76 @@
         <v>22</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>269</v>
+        <v>55</v>
       </c>
       <c r="H74">
-        <v>6968</v>
+        <v>859</v>
       </c>
       <c r="I74">
-        <v>1334</v>
+        <v>103</v>
       </c>
       <c r="J74">
-        <v>2648</v>
+        <v>205</v>
       </c>
       <c r="K74">
-        <v>224</v>
+        <v>1</v>
       </c>
       <c r="L74">
-        <v>673</v>
+        <v>7</v>
       </c>
       <c r="M74">
-        <v>533</v>
+        <v>22</v>
       </c>
       <c r="N74">
-        <v>696</v>
+        <v>32</v>
       </c>
       <c r="O74">
-        <v>324</v>
+        <v>64</v>
       </c>
       <c r="P74">
-        <v>1497</v>
+        <v>185</v>
       </c>
       <c r="Q74">
-        <v>615</v>
+        <v>17</v>
       </c>
       <c r="R74">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="S74">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="T74">
-        <v>386</v>
+        <v>33</v>
       </c>
       <c r="U74">
-        <v>667</v>
+        <v>109</v>
       </c>
       <c r="V74">
-        <v>3425</v>
+        <v>229</v>
       </c>
       <c r="W74">
-        <v>0.504</v>
+        <v>0.502</v>
       </c>
       <c r="X74">
-        <v>0.333</v>
+        <v>0.143</v>
       </c>
       <c r="Y74">
-        <v>0.766</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="Z74">
-        <v>25.9</v>
+        <v>15.6</v>
       </c>
       <c r="AA74">
-        <v>12.7</v>
+        <v>4.2</v>
       </c>
       <c r="AB74">
-        <v>5.6</v>
+        <v>3.4</v>
       </c>
       <c r="AC74">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="AD74" t="s">
         <v>179</v>
@@ -7813,76 +7786,76 @@
         <v>22</v>
       </c>
       <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>4</v>
+      </c>
+      <c r="H76">
+        <v>52</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>7</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
         <v>2</v>
       </c>
-      <c r="G76">
-        <v>71</v>
-      </c>
-      <c r="H76">
-        <v>1219</v>
-      </c>
-      <c r="I76">
-        <v>164</v>
-      </c>
-      <c r="J76">
-        <v>397</v>
-      </c>
-      <c r="K76">
-        <v>20</v>
-      </c>
-      <c r="L76">
-        <v>82</v>
-      </c>
       <c r="M76">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="N76">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="O76">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="P76">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="Q76">
-        <v>209</v>
+        <v>3</v>
       </c>
       <c r="R76">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="S76">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="T76">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="U76">
-        <v>122</v>
+        <v>6</v>
       </c>
       <c r="V76">
-        <v>448</v>
+        <v>3</v>
       </c>
       <c r="W76">
-        <v>0.413</v>
+        <v>0.143</v>
       </c>
       <c r="X76">
-        <v>0.244</v>
+        <v>0</v>
       </c>
       <c r="Y76">
-        <v>0.699</v>
+        <v>0.5</v>
       </c>
       <c r="Z76">
-        <v>17.2</v>
+        <v>13</v>
       </c>
       <c r="AA76">
-        <v>6.3</v>
+        <v>0.8</v>
       </c>
       <c r="AB76">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="AC76">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="AD76" t="s">
         <v>179</v>
@@ -7991,76 +7964,76 @@
         <v>21</v>
       </c>
       <c r="F78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="H78">
-        <v>2782</v>
+        <v>1123</v>
       </c>
       <c r="I78">
-        <v>398</v>
+        <v>184</v>
       </c>
       <c r="J78">
-        <v>988</v>
+        <v>437</v>
       </c>
       <c r="K78">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="L78">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="M78">
-        <v>139</v>
+        <v>55</v>
       </c>
       <c r="N78">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="O78">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="P78">
-        <v>223</v>
+        <v>95</v>
       </c>
       <c r="Q78">
-        <v>537</v>
+        <v>226</v>
       </c>
       <c r="R78">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="S78">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="T78">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="U78">
-        <v>193</v>
+        <v>73</v>
       </c>
       <c r="V78">
-        <v>998</v>
+        <v>444</v>
       </c>
       <c r="W78">
-        <v>0.403</v>
+        <v>0.421</v>
       </c>
       <c r="X78">
-        <v>0.28</v>
+        <v>0.266</v>
       </c>
       <c r="Y78">
-        <v>0.8080000000000001</v>
+        <v>0.775</v>
       </c>
       <c r="Z78">
-        <v>20.9</v>
+        <v>18.4</v>
       </c>
       <c r="AA78">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AB78">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AC78">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="AD78" t="s">
         <v>179</v>
@@ -8083,43 +8056,43 @@
         <v>23</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H79">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="I79">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J79">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K79">
         <v>3</v>
       </c>
       <c r="L79">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M79">
+        <v>5</v>
+      </c>
+      <c r="N79">
         <v>7</v>
       </c>
-      <c r="N79">
-        <v>9</v>
-      </c>
       <c r="O79">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q79">
         <v>9</v>
       </c>
       <c r="R79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S79">
         <v>4</v>
@@ -8128,31 +8101,31 @@
         <v>3</v>
       </c>
       <c r="U79">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V79">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="W79">
-        <v>0.378</v>
+        <v>0.421</v>
       </c>
       <c r="X79">
-        <v>0.231</v>
+        <v>0.333</v>
       </c>
       <c r="Y79">
-        <v>0.778</v>
+        <v>0.714</v>
       </c>
       <c r="Z79">
-        <v>9.9</v>
+        <v>12.8</v>
       </c>
       <c r="AA79">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="AB79">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="AC79">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AD79" t="s">
         <v>179</v>
@@ -8175,76 +8148,76 @@
         <v>23</v>
       </c>
       <c r="F80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G80">
-        <v>170</v>
+        <v>57</v>
       </c>
       <c r="H80">
-        <v>3559</v>
+        <v>976</v>
       </c>
       <c r="I80">
-        <v>500</v>
+        <v>102</v>
       </c>
       <c r="J80">
-        <v>1246</v>
+        <v>288</v>
       </c>
       <c r="K80">
-        <v>262</v>
+        <v>73</v>
       </c>
       <c r="L80">
-        <v>715</v>
+        <v>208</v>
       </c>
       <c r="M80">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="N80">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="O80">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="P80">
-        <v>618</v>
+        <v>151</v>
       </c>
       <c r="Q80">
-        <v>350</v>
+        <v>63</v>
       </c>
       <c r="R80">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="S80">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="T80">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c r="U80">
-        <v>322</v>
+        <v>86</v>
       </c>
       <c r="V80">
-        <v>1320</v>
+        <v>291</v>
       </c>
       <c r="W80">
-        <v>0.401</v>
+        <v>0.354</v>
       </c>
       <c r="X80">
-        <v>0.366</v>
+        <v>0.351</v>
       </c>
       <c r="Y80">
-        <v>0.753</v>
+        <v>0.778</v>
       </c>
       <c r="Z80">
-        <v>20.9</v>
+        <v>17.1</v>
       </c>
       <c r="AA80">
-        <v>7.8</v>
+        <v>5.1</v>
       </c>
       <c r="AB80">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="AC80">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="AD80" t="s">
         <v>179</v>
@@ -8267,76 +8240,76 @@
         <v>22</v>
       </c>
       <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>37</v>
+      </c>
+      <c r="H81">
+        <v>294</v>
+      </c>
+      <c r="I81">
+        <v>39</v>
+      </c>
+      <c r="J81">
+        <v>111</v>
+      </c>
+      <c r="K81">
+        <v>11</v>
+      </c>
+      <c r="L81">
+        <v>29</v>
+      </c>
+      <c r="M81">
+        <v>18</v>
+      </c>
+      <c r="N81">
+        <v>22</v>
+      </c>
+      <c r="O81">
         <v>4</v>
       </c>
-      <c r="G81">
-        <v>225</v>
-      </c>
-      <c r="H81">
-        <v>5293</v>
-      </c>
-      <c r="I81">
-        <v>804</v>
-      </c>
-      <c r="J81">
-        <v>1957</v>
-      </c>
-      <c r="K81">
-        <v>362</v>
-      </c>
-      <c r="L81">
-        <v>924</v>
-      </c>
-      <c r="M81">
-        <v>339</v>
-      </c>
-      <c r="N81">
-        <v>404</v>
-      </c>
-      <c r="O81">
-        <v>68</v>
-      </c>
       <c r="P81">
-        <v>573</v>
+        <v>42</v>
       </c>
       <c r="Q81">
-        <v>902</v>
+        <v>35</v>
       </c>
       <c r="R81">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="S81">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="T81">
-        <v>281</v>
+        <v>15</v>
       </c>
       <c r="U81">
-        <v>394</v>
+        <v>36</v>
       </c>
       <c r="V81">
-        <v>2309</v>
+        <v>107</v>
       </c>
       <c r="W81">
-        <v>0.411</v>
+        <v>0.351</v>
       </c>
       <c r="X81">
-        <v>0.392</v>
+        <v>0.379</v>
       </c>
       <c r="Y81">
-        <v>0.839</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="Z81">
-        <v>23.5</v>
+        <v>7.9</v>
       </c>
       <c r="AA81">
-        <v>10.3</v>
+        <v>2.9</v>
       </c>
       <c r="AB81">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="AC81">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="AD81" t="s">
         <v>179</v>
@@ -8359,76 +8332,76 @@
         <v>22</v>
       </c>
       <c r="F82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>260</v>
+        <v>59</v>
       </c>
       <c r="H82">
-        <v>6854</v>
+        <v>981</v>
       </c>
       <c r="I82">
-        <v>1069</v>
+        <v>114</v>
       </c>
       <c r="J82">
-        <v>2593</v>
+        <v>285</v>
       </c>
       <c r="K82">
-        <v>478</v>
+        <v>33</v>
       </c>
       <c r="L82">
-        <v>1305</v>
+        <v>102</v>
       </c>
       <c r="M82">
-        <v>392</v>
+        <v>74</v>
       </c>
       <c r="N82">
-        <v>479</v>
+        <v>94</v>
       </c>
       <c r="O82">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="P82">
-        <v>1126</v>
+        <v>157</v>
       </c>
       <c r="Q82">
-        <v>503</v>
+        <v>55</v>
       </c>
       <c r="R82">
-        <v>238</v>
+        <v>43</v>
       </c>
       <c r="S82">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="T82">
-        <v>479</v>
+        <v>61</v>
       </c>
       <c r="U82">
-        <v>564</v>
+        <v>96</v>
       </c>
       <c r="V82">
-        <v>3008</v>
+        <v>335</v>
       </c>
       <c r="W82">
-        <v>0.412</v>
+        <v>0.4</v>
       </c>
       <c r="X82">
-        <v>0.366</v>
+        <v>0.324</v>
       </c>
       <c r="Y82">
-        <v>0.8179999999999999</v>
+        <v>0.787</v>
       </c>
       <c r="Z82">
-        <v>26.4</v>
+        <v>16.6</v>
       </c>
       <c r="AA82">
-        <v>11.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB82">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="AC82">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="AD82" t="s">
         <v>179</v>
@@ -8451,76 +8424,76 @@
         <v>24</v>
       </c>
       <c r="F83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G83">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H83">
-        <v>557</v>
+        <v>471</v>
       </c>
       <c r="I83">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J83">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K83">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L83">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="M83">
+        <v>20</v>
+      </c>
+      <c r="N83">
         <v>22</v>
       </c>
-      <c r="N83">
+      <c r="O83">
         <v>25</v>
       </c>
-      <c r="O83">
-        <v>29</v>
-      </c>
       <c r="P83">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="Q83">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R83">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S83">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T83">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U83">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="V83">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="W83">
-        <v>0.381</v>
+        <v>0.379</v>
       </c>
       <c r="X83">
-        <v>0.34</v>
+        <v>0.353</v>
       </c>
       <c r="Y83">
-        <v>0.88</v>
+        <v>0.909</v>
       </c>
       <c r="Z83">
-        <v>12.7</v>
+        <v>13.5</v>
       </c>
       <c r="AA83">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AB83">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AC83">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD83" t="s">
         <v>179</v>
@@ -8543,76 +8516,76 @@
         <v>21</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="H84">
-        <v>1823</v>
+        <v>1643</v>
       </c>
       <c r="I84">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="J84">
-        <v>594</v>
+        <v>508</v>
       </c>
       <c r="K84">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L84">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="M84">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="N84">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="O84">
+        <v>32</v>
+      </c>
+      <c r="P84">
+        <v>184</v>
+      </c>
+      <c r="Q84">
+        <v>192</v>
+      </c>
+      <c r="R84">
+        <v>42</v>
+      </c>
+      <c r="S84">
         <v>36</v>
       </c>
-      <c r="P84">
-        <v>210</v>
-      </c>
-      <c r="Q84">
-        <v>212</v>
-      </c>
-      <c r="R84">
-        <v>50</v>
-      </c>
-      <c r="S84">
-        <v>38</v>
-      </c>
       <c r="T84">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="U84">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="V84">
-        <v>643</v>
+        <v>543</v>
       </c>
       <c r="W84">
-        <v>0.411</v>
+        <v>0.402</v>
       </c>
       <c r="X84">
-        <v>0.305</v>
+        <v>0.295</v>
       </c>
       <c r="Y84">
-        <v>0.788</v>
+        <v>0.805</v>
       </c>
       <c r="Z84">
-        <v>20.5</v>
+        <v>22.5</v>
       </c>
       <c r="AA84">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AB84">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AC84">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AD84" t="s">
         <v>179</v>
@@ -8635,76 +8608,76 @@
         <v>22</v>
       </c>
       <c r="F85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="H85">
-        <v>1176</v>
+        <v>557</v>
       </c>
       <c r="I85">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="J85">
-        <v>374</v>
+        <v>167</v>
       </c>
       <c r="K85">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="L85">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="M85">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="N85">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="O85">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="P85">
-        <v>191</v>
+        <v>69</v>
       </c>
       <c r="Q85">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="R85">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="S85">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="T85">
+        <v>32</v>
+      </c>
+      <c r="U85">
         <v>60</v>
       </c>
-      <c r="U85">
-        <v>131</v>
-      </c>
       <c r="V85">
-        <v>429</v>
+        <v>185</v>
       </c>
       <c r="W85">
-        <v>0.449</v>
+        <v>0.437</v>
       </c>
       <c r="X85">
-        <v>0.299</v>
+        <v>0.29</v>
       </c>
       <c r="Y85">
-        <v>0.649</v>
+        <v>0.656</v>
       </c>
       <c r="Z85">
-        <v>16.3</v>
+        <v>18.6</v>
       </c>
       <c r="AA85">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AB85">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="AC85">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD85" t="s">
         <v>179</v>
@@ -8908,73 +8881,73 @@
         <v>22</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G88">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="H88">
-        <v>1667</v>
+        <v>843</v>
       </c>
       <c r="I88">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="J88">
-        <v>455</v>
+        <v>221</v>
       </c>
       <c r="K88">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="L88">
-        <v>209</v>
+        <v>99</v>
       </c>
       <c r="M88">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N88">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="O88">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="P88">
-        <v>256</v>
+        <v>125</v>
       </c>
       <c r="Q88">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="R88">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="S88">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="T88">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="U88">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="V88">
-        <v>458</v>
+        <v>240</v>
       </c>
       <c r="W88">
-        <v>0.371</v>
+        <v>0.398</v>
       </c>
       <c r="X88">
-        <v>0.335</v>
+        <v>0.333</v>
       </c>
       <c r="Y88">
-        <v>0.769</v>
+        <v>0.775</v>
       </c>
       <c r="Z88">
-        <v>17</v>
+        <v>19.2</v>
       </c>
       <c r="AA88">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="AB88">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AC88">
         <v>0.8</v>
@@ -9000,76 +8973,76 @@
         <v>19</v>
       </c>
       <c r="F89">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G89">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="H89">
-        <v>3231</v>
+        <v>609</v>
       </c>
       <c r="I89">
-        <v>602</v>
+        <v>126</v>
       </c>
       <c r="J89">
-        <v>1078</v>
+        <v>238</v>
       </c>
       <c r="K89">
         <v>0</v>
       </c>
       <c r="L89">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M89">
-        <v>279</v>
+        <v>32</v>
       </c>
       <c r="N89">
-        <v>367</v>
+        <v>49</v>
       </c>
       <c r="O89">
-        <v>368</v>
+        <v>41</v>
       </c>
       <c r="P89">
-        <v>1108</v>
+        <v>159</v>
       </c>
       <c r="Q89">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="R89">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="S89">
-        <v>160</v>
+        <v>33</v>
       </c>
       <c r="T89">
-        <v>181</v>
+        <v>30</v>
       </c>
       <c r="U89">
-        <v>400</v>
+        <v>66</v>
       </c>
       <c r="V89">
-        <v>1483</v>
+        <v>284</v>
       </c>
       <c r="W89">
-        <v>0.5580000000000001</v>
+        <v>0.529</v>
       </c>
       <c r="X89">
         <v>0</v>
       </c>
       <c r="Y89">
-        <v>0.76</v>
+        <v>0.653</v>
       </c>
       <c r="Z89">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="AA89">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AB89">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="AC89">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AD89" t="s">
         <v>179</v>
